--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto.xlsx
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.133680210586805</v>
+        <v>9.133680210586807</v>
       </c>
       <c r="C3">
         <v>8.919244252484637</v>
@@ -425,10 +425,10 @@
         <v>0.9194823970570338</v>
       </c>
       <c r="C4">
-        <v>0.7991554944826501</v>
+        <v>0.79915549448265</v>
       </c>
       <c r="D4">
-        <v>0.9172464259512356</v>
+        <v>0.9172464259512354</v>
       </c>
       <c r="E4">
         <v>0.9177789048478581</v>
@@ -448,7 +448,7 @@
         <v>28.43463920448831</v>
       </c>
       <c r="E5">
-        <v>30.28670385997931</v>
+        <v>30.28670385997932</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -516,7 +516,7 @@
         <v>78.21811959685795</v>
       </c>
       <c r="E9">
-        <v>36.14377214601909</v>
+        <v>36.1437721460191</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -581,7 +581,7 @@
         <v>105.2470821793187</v>
       </c>
       <c r="D13">
-        <v>124.6107703760212</v>
+        <v>124.6107703760213</v>
       </c>
       <c r="E13">
         <v>121.6659354570516</v>
@@ -595,13 +595,13 @@
         <v>31.22099566521463</v>
       </c>
       <c r="C14">
-        <v>38.51442692385997</v>
+        <v>38.51442692385996</v>
       </c>
       <c r="D14">
         <v>58.21757716865035</v>
       </c>
       <c r="E14">
-        <v>76.76954873814474</v>
+        <v>76.76954873814476</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -609,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>91.65537394362374</v>
+        <v>91.65537394362377</v>
       </c>
       <c r="C15">
         <v>78.76581958832884</v>
@@ -649,7 +649,7 @@
         <v>58.14923280661213</v>
       </c>
       <c r="D17">
-        <v>63.51008418398221</v>
+        <v>63.5100841839822</v>
       </c>
       <c r="E17">
         <v>56.89978318238965</v>
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>63.93576147410764</v>
+        <v>63.93576147410766</v>
       </c>
       <c r="C18">
         <v>57.08316321590167</v>
@@ -669,7 +669,7 @@
         <v>71.62666328700433</v>
       </c>
       <c r="E18">
-        <v>91.73225292396751</v>
+        <v>91.73225292396748</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -694,10 +694,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>87.50164069513762</v>
+        <v>87.50164069513761</v>
       </c>
       <c r="C20">
-        <v>80.72791451824513</v>
+        <v>80.72791451824511</v>
       </c>
       <c r="D20">
         <v>96.0314977089356</v>
@@ -714,7 +714,7 @@
         <v>98.34895152511335</v>
       </c>
       <c r="C21">
-        <v>87.13489186096299</v>
+        <v>87.13489186096298</v>
       </c>
       <c r="D21">
         <v>77.27534581265913</v>
@@ -751,10 +751,10 @@
         <v>16.1755928688295</v>
       </c>
       <c r="D23">
-        <v>17.83569623616344</v>
+        <v>17.83569623616343</v>
       </c>
       <c r="E23">
-        <v>12.60051728178505</v>
+        <v>12.60051728178504</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -796,10 +796,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.7907492638881193</v>
+        <v>0.7907492638881194</v>
       </c>
       <c r="C26">
-        <v>0.6628649134602579</v>
+        <v>0.6628649134602581</v>
       </c>
       <c r="D26">
         <v>0.7568904235357242</v>
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>76.87935323400036</v>
+        <v>76.87935323400038</v>
       </c>
       <c r="C27">
         <v>71.96856074013655</v>
       </c>
       <c r="D27">
-        <v>83.18531405460446</v>
+        <v>83.18531405460445</v>
       </c>
       <c r="E27">
         <v>81.03677293041009</v>
@@ -830,13 +830,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>52.23853488976948</v>
+        <v>52.23853488976949</v>
       </c>
       <c r="C28">
-        <v>49.95464804315361</v>
+        <v>49.9546480431536</v>
       </c>
       <c r="D28">
-        <v>54.82668426326204</v>
+        <v>54.82668426326203</v>
       </c>
       <c r="E28">
         <v>44.70994368574349</v>
@@ -847,10 +847,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>31.54024748061553</v>
+        <v>31.54024748061555</v>
       </c>
       <c r="C29">
-        <v>31.32749114570651</v>
+        <v>31.3274911457065</v>
       </c>
       <c r="D29">
         <v>23.63219149278536</v>
@@ -884,7 +884,7 @@
         <v>189.507903077004</v>
       </c>
       <c r="C31">
-        <v>257.7176712335223</v>
+        <v>257.7176712335222</v>
       </c>
       <c r="D31">
         <v>241.1242294121024</v>
@@ -901,7 +901,7 @@
         <v>154.5164207772293</v>
       </c>
       <c r="C32">
-        <v>137.9332263617173</v>
+        <v>137.9332263617172</v>
       </c>
       <c r="D32">
         <v>168.2595541922395</v>
@@ -918,10 +918,10 @@
         <v>162.3331848999242</v>
       </c>
       <c r="C33">
-        <v>189.5674055881836</v>
+        <v>189.5674055881835</v>
       </c>
       <c r="D33">
-        <v>213.3689224294144</v>
+        <v>213.3689224294143</v>
       </c>
       <c r="E33">
         <v>199.9237917194424</v>
@@ -932,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>23.22792734241202</v>
+        <v>23.22792734241203</v>
       </c>
       <c r="C34">
         <v>13.14695401626654</v>
@@ -952,10 +952,10 @@
         <v>92.71745688108798</v>
       </c>
       <c r="C35">
-        <v>81.20399646713118</v>
+        <v>81.20399646713115</v>
       </c>
       <c r="D35">
-        <v>86.14397205831209</v>
+        <v>86.1439720583121</v>
       </c>
       <c r="E35">
         <v>102.5144299018643</v>
@@ -966,10 +966,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>335.3316575232752</v>
+        <v>335.3316575232753</v>
       </c>
       <c r="C36">
-        <v>404.6892404002439</v>
+        <v>404.6892404002438</v>
       </c>
       <c r="D36">
         <v>498.0325684439445</v>
@@ -986,10 +986,10 @@
         <v>392.6620888590436</v>
       </c>
       <c r="C37">
-        <v>534.6104486750239</v>
+        <v>534.6104486750238</v>
       </c>
       <c r="D37">
-        <v>490.7865224629068</v>
+        <v>490.7865224629066</v>
       </c>
       <c r="E37">
         <v>259.3946335399513</v>
@@ -1003,7 +1003,7 @@
         <v>415.4752031765584</v>
       </c>
       <c r="C38">
-        <v>451.8913534645617</v>
+        <v>451.8913534645616</v>
       </c>
       <c r="D38">
         <v>473.7156868989796</v>
@@ -1017,10 +1017,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>25.69963375175775</v>
+        <v>25.69963375175776</v>
       </c>
       <c r="C39">
-        <v>39.72615294094258</v>
+        <v>39.72615294094257</v>
       </c>
       <c r="D39">
         <v>27.01573048092157</v>
@@ -1034,13 +1034,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>4.791651483432704</v>
+        <v>4.791651483432705</v>
       </c>
       <c r="C40">
         <v>4.058023533672587</v>
       </c>
       <c r="D40">
-        <v>3.654951233522698</v>
+        <v>3.654951233522699</v>
       </c>
       <c r="E40">
         <v>3.177387365007458</v>
@@ -1071,13 +1071,13 @@
         <v>432.6498955468066</v>
       </c>
       <c r="C42">
-        <v>334.6314793776006</v>
+        <v>334.6314793776005</v>
       </c>
       <c r="D42">
         <v>426.9558655159185</v>
       </c>
       <c r="E42">
-        <v>755.7334769649335</v>
+        <v>755.7334769649334</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1091,7 +1091,7 @@
         <v>402.3048846831399</v>
       </c>
       <c r="D43">
-        <v>481.3328188198767</v>
+        <v>481.3328188198765</v>
       </c>
       <c r="E43">
         <v>935.24838935063</v>
@@ -1102,7 +1102,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>251.3864158311843</v>
+        <v>251.3864158311842</v>
       </c>
       <c r="C44">
         <v>192.0672537119199</v>
@@ -1136,7 +1136,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>184.3476845457757</v>
+        <v>184.3476845457758</v>
       </c>
       <c r="C46">
         <v>194.1961416900739</v>
@@ -1156,10 +1156,10 @@
         <v>53.33878663339882</v>
       </c>
       <c r="C47">
-        <v>58.83317123206287</v>
+        <v>58.83317123206285</v>
       </c>
       <c r="D47">
-        <v>85.91603086571389</v>
+        <v>85.91603086571385</v>
       </c>
       <c r="E47">
         <v>170.1926575705685</v>
@@ -1173,7 +1173,7 @@
         <v>56.85539337737507</v>
       </c>
       <c r="C48">
-        <v>48.15603242097431</v>
+        <v>48.15603242097429</v>
       </c>
       <c r="D48">
         <v>56.31074252012507</v>
@@ -1193,7 +1193,7 @@
         <v>564.3359963023122</v>
       </c>
       <c r="D49">
-        <v>541.055470825277</v>
+        <v>541.0554708252769</v>
       </c>
       <c r="E49">
         <v>397.7289151142261</v>
@@ -1204,7 +1204,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>346.4361397453871</v>
+        <v>346.4361397453872</v>
       </c>
       <c r="C50">
         <v>291.3480180682127</v>
@@ -1221,7 +1221,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>214.64149169362</v>
+        <v>214.6414916936201</v>
       </c>
       <c r="C51">
         <v>191.0696619424433</v>
@@ -1230,7 +1230,7 @@
         <v>188.1204187919856</v>
       </c>
       <c r="E51">
-        <v>153.5276890607204</v>
+        <v>153.5276890607205</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1278,7 +1278,7 @@
         <v>419.4871020965909</v>
       </c>
       <c r="D54">
-        <v>482.4633074767035</v>
+        <v>482.4633074767034</v>
       </c>
       <c r="E54">
         <v>429.6131520095667</v>
@@ -1289,7 +1289,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>76.11097009557746</v>
+        <v>76.11097009557747</v>
       </c>
       <c r="C55">
         <v>87.11159334200329</v>
@@ -1306,13 +1306,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>60.09597241316555</v>
+        <v>60.09597241316556</v>
       </c>
       <c r="C56">
         <v>45.2670627618572</v>
       </c>
       <c r="D56">
-        <v>54.21726566536286</v>
+        <v>54.21726566536285</v>
       </c>
       <c r="E56">
         <v>81.44046523257397</v>
@@ -1343,13 +1343,13 @@
         <v>150.0689546989944</v>
       </c>
       <c r="C58">
-        <v>134.9382067229892</v>
+        <v>134.9382067229891</v>
       </c>
       <c r="D58">
         <v>159.1058228535911</v>
       </c>
       <c r="E58">
-        <v>172.3180201209468</v>
+        <v>172.3180201209467</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1357,7 +1357,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>32.58075990175537</v>
+        <v>32.58075990175538</v>
       </c>
       <c r="C59">
         <v>26.32940618985154</v>
@@ -1380,7 +1380,7 @@
         <v>246.5684392342833</v>
       </c>
       <c r="D60">
-        <v>256.4272573659242</v>
+        <v>256.4272573659243</v>
       </c>
       <c r="E60">
         <v>186.4516896473382</v>
@@ -1397,7 +1397,7 @@
         <v>70.00561214440708</v>
       </c>
       <c r="D61">
-        <v>86.91231972346452</v>
+        <v>86.91231972346455</v>
       </c>
       <c r="E61">
         <v>96.62273795489588</v>
@@ -1434,7 +1434,7 @@
         <v>49.92102226510092</v>
       </c>
       <c r="E63">
-        <v>55.87205781199663</v>
+        <v>55.87205781199662</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1442,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>38.92562754434759</v>
+        <v>38.92562754434758</v>
       </c>
       <c r="C64">
         <v>40.73997489190594</v>
@@ -1482,7 +1482,7 @@
         <v>393.4440123246131</v>
       </c>
       <c r="D66">
-        <v>373.8255751546073</v>
+        <v>373.8255751546072</v>
       </c>
       <c r="E66">
         <v>329.9335227632745</v>
@@ -1496,10 +1496,10 @@
         <v>124.7150294228061</v>
       </c>
       <c r="C67">
-        <v>83.48141275125502</v>
+        <v>83.48141275125501</v>
       </c>
       <c r="D67">
-        <v>95.9451001780255</v>
+        <v>95.94510017802548</v>
       </c>
       <c r="E67">
         <v>197.1464814273332</v>
@@ -1516,7 +1516,7 @@
         <v>313.5256973211761</v>
       </c>
       <c r="D68">
-        <v>270.902170047105</v>
+        <v>270.9021700471049</v>
       </c>
       <c r="E68">
         <v>177.9316288072944</v>
@@ -1530,10 +1530,10 @@
         <v>335.9969616214422</v>
       </c>
       <c r="C69">
-        <v>317.2293684547691</v>
+        <v>317.229368454769</v>
       </c>
       <c r="D69">
-        <v>283.3727377350985</v>
+        <v>283.3727377350984</v>
       </c>
       <c r="E69">
         <v>248.9223250345116</v>
@@ -1547,10 +1547,10 @@
         <v>174.6010411919285</v>
       </c>
       <c r="C70">
-        <v>152.8352018061439</v>
+        <v>152.8352018061438</v>
       </c>
       <c r="D70">
-        <v>141.6863688675493</v>
+        <v>141.6863688675492</v>
       </c>
       <c r="E70">
         <v>145.3706378201548</v>
@@ -1564,13 +1564,13 @@
         <v>20.12787741202065</v>
       </c>
       <c r="C71">
-        <v>18.59263848052944</v>
+        <v>18.59263848052943</v>
       </c>
       <c r="D71">
-        <v>15.60275110583915</v>
+        <v>15.60275110583914</v>
       </c>
       <c r="E71">
-        <v>14.49455328085913</v>
+        <v>14.49455328085914</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1581,7 +1581,7 @@
         <v>38.43238377031946</v>
       </c>
       <c r="C72">
-        <v>29.82118038366274</v>
+        <v>29.82118038366273</v>
       </c>
       <c r="D72">
         <v>24.24720968851043</v>
@@ -1598,10 +1598,10 @@
         <v>73.66206889311229</v>
       </c>
       <c r="C73">
-        <v>62.35337716584027</v>
+        <v>62.35337716584025</v>
       </c>
       <c r="D73">
-        <v>60.04070970488296</v>
+        <v>60.04070970488295</v>
       </c>
       <c r="E73">
         <v>68.57758959137703</v>
@@ -1615,7 +1615,7 @@
         <v>28.8242878277396</v>
       </c>
       <c r="C74">
-        <v>23.04363938737575</v>
+        <v>23.04363938737574</v>
       </c>
       <c r="D74">
         <v>21.93795162293801</v>
@@ -1632,7 +1632,7 @@
         <v>67.02660333411814</v>
       </c>
       <c r="C75">
-        <v>48.78490281671905</v>
+        <v>48.78490281671904</v>
       </c>
       <c r="D75">
         <v>49.36246974610228</v>
@@ -1649,7 +1649,7 @@
         <v>173.1338055516601</v>
       </c>
       <c r="C76">
-        <v>183.6591080527611</v>
+        <v>183.659108052761</v>
       </c>
       <c r="D76">
         <v>186.3119968573286</v>
@@ -1686,7 +1686,7 @@
         <v>52.92459793887518</v>
       </c>
       <c r="D78">
-        <v>48.43984186877063</v>
+        <v>48.43984186877062</v>
       </c>
       <c r="E78">
         <v>45.7495253061611</v>
@@ -1703,7 +1703,7 @@
         <v>6.454219260838436</v>
       </c>
       <c r="D79">
-        <v>6.759047702619158</v>
+        <v>6.759047702619156</v>
       </c>
       <c r="E79">
         <v>5.967329387760143</v>
@@ -1734,10 +1734,10 @@
         <v>271.0727968362178</v>
       </c>
       <c r="C81">
-        <v>249.9901519046373</v>
+        <v>249.9901519046372</v>
       </c>
       <c r="D81">
-        <v>236.3172303358937</v>
+        <v>236.3172303358936</v>
       </c>
       <c r="E81">
         <v>236.5442864427388</v>
@@ -1751,13 +1751,13 @@
         <v>32.07962092736305</v>
       </c>
       <c r="C82">
-        <v>23.61018101321575</v>
+        <v>23.61018101321574</v>
       </c>
       <c r="D82">
-        <v>22.4501368819099</v>
+        <v>22.45013688190989</v>
       </c>
       <c r="E82">
-        <v>27.52886092221528</v>
+        <v>27.52886092221529</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1765,16 +1765,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>319.2677732367003</v>
+        <v>319.2677732367004</v>
       </c>
       <c r="C83">
-        <v>280.1597696981458</v>
+        <v>280.1597696981457</v>
       </c>
       <c r="D83">
         <v>254.6838069135247</v>
       </c>
       <c r="E83">
-        <v>244.1958588502227</v>
+        <v>244.1958588502226</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1782,10 +1782,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>72.18227916655833</v>
+        <v>72.18227916655835</v>
       </c>
       <c r="C84">
-        <v>58.72344517690392</v>
+        <v>58.72344517690391</v>
       </c>
       <c r="D84">
         <v>59.42622161315577</v>
@@ -1802,7 +1802,7 @@
         <v>281.1504976309181</v>
       </c>
       <c r="C85">
-        <v>283.8579016758384</v>
+        <v>283.8579016758383</v>
       </c>
       <c r="D85">
         <v>250.357082837199</v>
@@ -1842,7 +1842,7 @@
         <v>174.9707488643288</v>
       </c>
       <c r="E87">
-        <v>178.9998238306908</v>
+        <v>178.9998238306907</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1850,13 +1850,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>36.7015697386833</v>
+        <v>36.70156973868329</v>
       </c>
       <c r="C88">
         <v>22.18317672197487</v>
       </c>
       <c r="D88">
-        <v>24.47143340759844</v>
+        <v>24.47143340759843</v>
       </c>
       <c r="E88">
         <v>61.04618269370379</v>
@@ -1873,10 +1873,10 @@
         <v>54.71850258087134</v>
       </c>
       <c r="D89">
-        <v>46.49572347443702</v>
+        <v>46.49572347443701</v>
       </c>
       <c r="E89">
-        <v>49.66469100504716</v>
+        <v>49.66469100504715</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1884,7 +1884,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>347.274026139854</v>
+        <v>347.2740261398541</v>
       </c>
       <c r="C90">
         <v>395.325509713579</v>
@@ -1941,7 +1941,7 @@
         <v>26.0882467550169</v>
       </c>
       <c r="D93">
-        <v>32.18751739825343</v>
+        <v>32.18751739825342</v>
       </c>
       <c r="E93">
         <v>34.90497529520345</v>
@@ -1952,13 +1952,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>45.50805987084101</v>
+        <v>45.50805987084102</v>
       </c>
       <c r="C94">
         <v>50.3984947193199</v>
       </c>
       <c r="D94">
-        <v>35.73012312662389</v>
+        <v>35.73012312662388</v>
       </c>
       <c r="E94">
         <v>13.02485549838768</v>
@@ -1969,7 +1969,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>226.0285591255605</v>
+        <v>226.0285591255606</v>
       </c>
       <c r="C95">
         <v>263.3104853787841</v>
@@ -1986,10 +1986,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>136.0042023711008</v>
+        <v>136.0042023711009</v>
       </c>
       <c r="C96">
-        <v>158.6786118383786</v>
+        <v>158.6786118383785</v>
       </c>
       <c r="D96">
         <v>183.3415470807229</v>
@@ -2003,10 +2003,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>82.40045209340703</v>
+        <v>82.40045209340704</v>
       </c>
       <c r="C97">
-        <v>69.56865801337841</v>
+        <v>69.5686580133784</v>
       </c>
       <c r="D97">
         <v>100.2411256117035</v>
@@ -2020,7 +2020,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>230.9299472792041</v>
+        <v>230.9299472792042</v>
       </c>
       <c r="C98">
         <v>260.791343538951</v>
@@ -2077,7 +2077,7 @@
         <v>64.04325790584711</v>
       </c>
       <c r="D101">
-        <v>83.94987781278844</v>
+        <v>83.94987781278843</v>
       </c>
       <c r="E101">
         <v>115.5884971639906</v>
@@ -2105,10 +2105,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>220.6148880694988</v>
+        <v>220.6148880694989</v>
       </c>
       <c r="C103">
-        <v>290.5090211261662</v>
+        <v>290.5090211261661</v>
       </c>
       <c r="D103">
         <v>266.1789946853895</v>
@@ -2125,7 +2125,7 @@
         <v>288.0073322636398</v>
       </c>
       <c r="C104">
-        <v>329.1886924942393</v>
+        <v>329.1886924942392</v>
       </c>
       <c r="D104">
         <v>416.9834763160197</v>
@@ -2139,13 +2139,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>138.2272046532678</v>
+        <v>138.2272046532679</v>
       </c>
       <c r="C105">
-        <v>125.6198800312061</v>
+        <v>125.619880031206</v>
       </c>
       <c r="D105">
-        <v>138.7790995841103</v>
+        <v>138.7790995841102</v>
       </c>
       <c r="E105">
         <v>192.8497211936834</v>
@@ -2159,10 +2159,10 @@
         <v>108.7766367675874</v>
       </c>
       <c r="C106">
-        <v>46.9507132000753</v>
+        <v>46.95071320007529</v>
       </c>
       <c r="D106">
-        <v>58.08506197091788</v>
+        <v>58.08506197091787</v>
       </c>
       <c r="E106">
         <v>218.9803195432216</v>
@@ -2182,7 +2182,7 @@
         <v>188.4537566167558</v>
       </c>
       <c r="E107">
-        <v>452.0534319283339</v>
+        <v>452.0534319283338</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2196,7 +2196,7 @@
         <v>1.742724731195586</v>
       </c>
       <c r="D108">
-        <v>1.41060277217852</v>
+        <v>1.410602772178519</v>
       </c>
       <c r="E108">
         <v>2.306438466996104</v>
@@ -2244,10 +2244,10 @@
         <v>475.9622986172827</v>
       </c>
       <c r="C111">
-        <v>563.5082779994508</v>
+        <v>563.5082779994506</v>
       </c>
       <c r="D111">
-        <v>493.1663996352365</v>
+        <v>493.1663996352364</v>
       </c>
       <c r="E111">
         <v>317.9934840329636</v>
@@ -2261,7 +2261,7 @@
         <v>170.2829403527873</v>
       </c>
       <c r="C112">
-        <v>222.718626890289</v>
+        <v>222.7186268902889</v>
       </c>
       <c r="D112">
         <v>254.5719027287482</v>
@@ -2298,7 +2298,7 @@
         <v>233.4876046133612</v>
       </c>
       <c r="D114">
-        <v>270.055825628305</v>
+        <v>270.0558256283049</v>
       </c>
       <c r="E114">
         <v>468.0016429145153</v>
@@ -2312,7 +2312,7 @@
         <v>122.5086462410434</v>
       </c>
       <c r="C115">
-        <v>167.3182812890122</v>
+        <v>167.3182812890121</v>
       </c>
       <c r="D115">
         <v>149.9231640297197</v>
@@ -2326,10 +2326,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>317.4654818205065</v>
+        <v>317.4654818205066</v>
       </c>
       <c r="C116">
-        <v>396.5066463577115</v>
+        <v>396.5066463577113</v>
       </c>
       <c r="D116">
         <v>437.1995720776329</v>
@@ -2360,7 +2360,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2.049571862669925</v>
+        <v>2.049571862669926</v>
       </c>
       <c r="C118">
         <v>1.766480432535267</v>
@@ -2383,7 +2383,7 @@
         <v>13.73326215995402</v>
       </c>
       <c r="D119">
-        <v>14.52106275394633</v>
+        <v>14.52106275394632</v>
       </c>
       <c r="E119">
         <v>38.94146357092865</v>
@@ -2417,10 +2417,10 @@
         <v>484.0945386137843</v>
       </c>
       <c r="D121">
-        <v>479.90114551088</v>
+        <v>479.9011455108799</v>
       </c>
       <c r="E121">
-        <v>383.6754715068952</v>
+        <v>383.6754715068951</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2431,7 +2431,7 @@
         <v>652.7486242972909</v>
       </c>
       <c r="C122">
-        <v>709.8529526880403</v>
+        <v>709.8529526880402</v>
       </c>
       <c r="D122">
         <v>591.3909856385725</v>
@@ -2448,10 +2448,10 @@
         <v>601.3495920183568</v>
       </c>
       <c r="C123">
-        <v>626.3419319946461</v>
+        <v>626.341931994646</v>
       </c>
       <c r="D123">
-        <v>430.5821252554259</v>
+        <v>430.5821252554258</v>
       </c>
       <c r="E123">
         <v>176.0527281004061</v>
@@ -2465,7 +2465,7 @@
         <v>189.4041090174107</v>
       </c>
       <c r="C124">
-        <v>181.4320645848027</v>
+        <v>181.4320645848026</v>
       </c>
       <c r="D124">
         <v>242.5367525371674</v>
@@ -2479,7 +2479,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>655.7984398589517</v>
+        <v>655.7984398589518</v>
       </c>
       <c r="C125">
         <v>749.0259497177321</v>
@@ -2505,7 +2505,7 @@
         <v>23.53879236446224</v>
       </c>
       <c r="E126">
-        <v>16.91598543930445</v>
+        <v>16.91598543930446</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2513,7 +2513,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>946.4806691240072</v>
+        <v>946.4806691240074</v>
       </c>
       <c r="C127">
         <v>832.6578674834359</v>
@@ -2536,7 +2536,7 @@
         <v>22.92898309392416</v>
       </c>
       <c r="D128">
-        <v>28.44654222431397</v>
+        <v>28.44654222431396</v>
       </c>
       <c r="E128">
         <v>169.2066570286489</v>
@@ -2550,7 +2550,7 @@
         <v>78.88019862771702</v>
       </c>
       <c r="C129">
-        <v>50.77131970797493</v>
+        <v>50.77131970797492</v>
       </c>
       <c r="D129">
         <v>60.9568761949585</v>
@@ -2567,7 +2567,7 @@
         <v>177.291507991066</v>
       </c>
       <c r="C130">
-        <v>215.5969806885049</v>
+        <v>215.5969806885048</v>
       </c>
       <c r="D130">
         <v>191.7175822490413</v>
@@ -2584,13 +2584,13 @@
         <v>219.4609192429904</v>
       </c>
       <c r="C131">
-        <v>288.0403379089848</v>
+        <v>288.0403379089847</v>
       </c>
       <c r="D131">
         <v>263.1495832775735</v>
       </c>
       <c r="E131">
-        <v>170.7510639337169</v>
+        <v>170.7510639337168</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2601,7 +2601,7 @@
         <v>393.2434545568373</v>
       </c>
       <c r="C132">
-        <v>448.226048252518</v>
+        <v>448.2260482525179</v>
       </c>
       <c r="D132">
         <v>374.944516128296</v>
@@ -2635,7 +2635,7 @@
         <v>61.64123404591344</v>
       </c>
       <c r="C134">
-        <v>83.70560626004747</v>
+        <v>83.70560626004746</v>
       </c>
       <c r="D134">
         <v>135.9564640708954</v>
@@ -2649,10 +2649,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>549.3562448724485</v>
+        <v>549.3562448724487</v>
       </c>
       <c r="C135">
-        <v>659.4117894252175</v>
+        <v>659.4117894252173</v>
       </c>
       <c r="D135">
         <v>587.91430188366</v>
@@ -2666,10 +2666,10 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>479.1090128993912</v>
+        <v>479.1090128993913</v>
       </c>
       <c r="C136">
-        <v>534.1279356371119</v>
+        <v>534.1279356371118</v>
       </c>
       <c r="D136">
         <v>506.8628928969302</v>
@@ -2686,7 +2686,7 @@
         <v>251.9969755064471</v>
       </c>
       <c r="C137">
-        <v>263.5340768562569</v>
+        <v>263.5340768562568</v>
       </c>
       <c r="D137">
         <v>262.3271026234244</v>
@@ -2700,13 +2700,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>401.4997683145532</v>
+        <v>401.4997683145533</v>
       </c>
       <c r="C138">
-        <v>521.900818872195</v>
+        <v>521.9008188721947</v>
       </c>
       <c r="D138">
-        <v>440.2064393338286</v>
+        <v>440.2064393338285</v>
       </c>
       <c r="E138">
         <v>239.951197820157</v>
@@ -2720,7 +2720,7 @@
         <v>315.9615100026726</v>
       </c>
       <c r="C139">
-        <v>361.4874862838735</v>
+        <v>361.4874862838734</v>
       </c>
       <c r="D139">
         <v>318.4787398967452</v>
@@ -2737,13 +2737,13 @@
         <v>134.1944627328959</v>
       </c>
       <c r="C140">
-        <v>114.8355052385104</v>
+        <v>114.8355052385103</v>
       </c>
       <c r="D140">
-        <v>84.99662397139672</v>
+        <v>84.99662397139669</v>
       </c>
       <c r="E140">
-        <v>47.14568959514449</v>
+        <v>47.14568959514448</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2754,7 +2754,7 @@
         <v>584.3123815117918</v>
       </c>
       <c r="C141">
-        <v>798.9886963190287</v>
+        <v>798.9886963190285</v>
       </c>
       <c r="D141">
         <v>755.7122641617683</v>
@@ -2777,7 +2777,7 @@
         <v>181.9711847302996</v>
       </c>
       <c r="E142">
-        <v>126.2670571672929</v>
+        <v>126.267057167293</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2794,7 +2794,7 @@
         <v>10.85372503881027</v>
       </c>
       <c r="E143">
-        <v>5.470517229758535</v>
+        <v>5.470517229758536</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2802,13 +2802,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>469.8492144336079</v>
+        <v>469.849214433608</v>
       </c>
       <c r="C144">
-        <v>546.1567815764785</v>
+        <v>546.1567815764784</v>
       </c>
       <c r="D144">
-        <v>484.7108943967437</v>
+        <v>484.7108943967435</v>
       </c>
       <c r="E144">
         <v>324.2508317390445</v>
@@ -2819,13 +2819,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>144.1457777302169</v>
+        <v>144.145777730217</v>
       </c>
       <c r="C145">
         <v>121.86969506252</v>
       </c>
       <c r="D145">
-        <v>155.7610289859199</v>
+        <v>155.7610289859198</v>
       </c>
       <c r="E145">
         <v>305.6382462313653</v>
@@ -2836,13 +2836,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>91.2077051662983</v>
+        <v>91.20770516629831</v>
       </c>
       <c r="C146">
-        <v>83.9002605146119</v>
+        <v>83.90026051461189</v>
       </c>
       <c r="D146">
-        <v>65.66611473318926</v>
+        <v>65.66611473318925</v>
       </c>
       <c r="E146">
         <v>43.46898885648496</v>
@@ -2870,13 +2870,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>755.5807853116489</v>
+        <v>755.580785311649</v>
       </c>
       <c r="C148">
-        <v>831.4196288840549</v>
+        <v>831.4196288840545</v>
       </c>
       <c r="D148">
-        <v>709.8424656882192</v>
+        <v>709.842465688219</v>
       </c>
       <c r="E148">
         <v>451.4247100549109</v>
@@ -2887,10 +2887,10 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>381.7941822854975</v>
+        <v>381.7941822854976</v>
       </c>
       <c r="C149">
-        <v>500.9021263110523</v>
+        <v>500.9021263110521</v>
       </c>
       <c r="D149">
         <v>389.377757662643</v>
@@ -2904,7 +2904,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>232.5872604727743</v>
+        <v>232.5872604727744</v>
       </c>
       <c r="C150">
         <v>257.6283937738594</v>
@@ -2924,13 +2924,13 @@
         <v>56.51340709861859</v>
       </c>
       <c r="C151">
-        <v>91.22835306681729</v>
+        <v>91.22835306681725</v>
       </c>
       <c r="D151">
         <v>100.3775067727894</v>
       </c>
       <c r="E151">
-        <v>75.42654144153559</v>
+        <v>75.42654144153558</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2947,7 +2947,7 @@
         <v>375.2336938159231</v>
       </c>
       <c r="E152">
-        <v>210.5455574339225</v>
+        <v>210.5455574339224</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2972,10 +2972,10 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>679.7577058503236</v>
+        <v>679.7577058503238</v>
       </c>
       <c r="C154">
-        <v>518.0741263663056</v>
+        <v>518.0741263663054</v>
       </c>
       <c r="D154">
         <v>546.4181390573975</v>
@@ -2992,10 +2992,10 @@
         <v>463.255365103612</v>
       </c>
       <c r="C155">
-        <v>482.1785684520241</v>
+        <v>482.178568452024</v>
       </c>
       <c r="D155">
-        <v>525.6460098921726</v>
+        <v>525.6460098921725</v>
       </c>
       <c r="E155">
         <v>552.8311133088325</v>
@@ -3009,13 +3009,13 @@
         <v>503.4552108357436</v>
       </c>
       <c r="C156">
-        <v>591.7646067365749</v>
+        <v>591.7646067365748</v>
       </c>
       <c r="D156">
         <v>697.6756131296108</v>
       </c>
       <c r="E156">
-        <v>767.0309498159526</v>
+        <v>767.0309498159527</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3026,10 +3026,10 @@
         <v>689.4089206364193</v>
       </c>
       <c r="C157">
-        <v>664.3539908766653</v>
+        <v>664.3539908766652</v>
       </c>
       <c r="D157">
-        <v>655.2669508614579</v>
+        <v>655.2669508614576</v>
       </c>
       <c r="E157">
         <v>592.54397974134</v>
@@ -3043,13 +3043,13 @@
         <v>774.3571819912088</v>
       </c>
       <c r="C158">
-        <v>776.5325497473311</v>
+        <v>776.5325497473309</v>
       </c>
       <c r="D158">
-        <v>683.3293549120441</v>
+        <v>683.329354912044</v>
       </c>
       <c r="E158">
-        <v>498.2951593728752</v>
+        <v>498.2951593728753</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3063,7 +3063,7 @@
         <v>574.4109121829737</v>
       </c>
       <c r="D159">
-        <v>544.0530816940981</v>
+        <v>544.053081694098</v>
       </c>
       <c r="E159">
         <v>365.7860225547815</v>
@@ -3074,10 +3074,10 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>216.3721443441723</v>
+        <v>216.3721443441722</v>
       </c>
       <c r="C160">
-        <v>174.2973992824548</v>
+        <v>174.2973992824547</v>
       </c>
       <c r="D160">
         <v>226.91039912683</v>
@@ -3094,7 +3094,7 @@
         <v>1058.940946461628</v>
       </c>
       <c r="C161">
-        <v>842.6546296857188</v>
+        <v>842.6546296857184</v>
       </c>
       <c r="D161">
         <v>1029.404187288767</v>
@@ -3125,10 +3125,10 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>428.0005989933322</v>
+        <v>428.0005989933323</v>
       </c>
       <c r="C163">
-        <v>555.3877728039765</v>
+        <v>555.3877728039764</v>
       </c>
       <c r="D163">
         <v>459.6098725350656</v>
@@ -3145,7 +3145,7 @@
         <v>72.42083402010513</v>
       </c>
       <c r="C164">
-        <v>55.40995013726452</v>
+        <v>55.40995013726451</v>
       </c>
       <c r="D164">
         <v>77.09797902169717</v>
@@ -3162,10 +3162,10 @@
         <v>764.2985344787098</v>
       </c>
       <c r="C165">
-        <v>841.6534214177879</v>
+        <v>841.6534214177877</v>
       </c>
       <c r="D165">
-        <v>697.9161441321196</v>
+        <v>697.9161441321195</v>
       </c>
       <c r="E165">
         <v>400.3785002362726</v>
@@ -3182,10 +3182,10 @@
         <v>313.8685345131817</v>
       </c>
       <c r="D166">
-        <v>385.7925352285883</v>
+        <v>385.7925352285882</v>
       </c>
       <c r="E166">
-        <v>425.6845905446601</v>
+        <v>425.68459054466</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3193,7 +3193,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>2.523724650154275</v>
+        <v>2.523724650154276</v>
       </c>
       <c r="C167">
         <v>2.388273302089696</v>
@@ -3230,7 +3230,7 @@
         <v>283.988377259481</v>
       </c>
       <c r="C169">
-        <v>328.2814617609363</v>
+        <v>328.2814617609362</v>
       </c>
       <c r="D169">
         <v>419.9356407594661</v>
@@ -3250,7 +3250,7 @@
         <v>349.8787868422462</v>
       </c>
       <c r="D170">
-        <v>436.2223868511605</v>
+        <v>436.2223868511604</v>
       </c>
       <c r="E170">
         <v>571.6603178232483</v>
@@ -3264,10 +3264,10 @@
         <v>59.22244544631671</v>
       </c>
       <c r="C171">
-        <v>64.15339373999431</v>
+        <v>64.1533937399943</v>
       </c>
       <c r="D171">
-        <v>81.07522056152908</v>
+        <v>81.07522056152906</v>
       </c>
       <c r="E171">
         <v>130.3648361353387</v>
@@ -3281,7 +3281,7 @@
         <v>155.031076033234</v>
       </c>
       <c r="C172">
-        <v>226.3049400039308</v>
+        <v>226.3049400039307</v>
       </c>
       <c r="D172">
         <v>240.5253718285061</v>
@@ -3295,10 +3295,10 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>292.9038015724021</v>
+        <v>292.9038015724022</v>
       </c>
       <c r="C173">
-        <v>382.7306621445872</v>
+        <v>382.730662144587</v>
       </c>
       <c r="D173">
         <v>428.4688670062734</v>
@@ -3315,10 +3315,10 @@
         <v>108.3410086282808</v>
       </c>
       <c r="C174">
-        <v>181.0913004821555</v>
+        <v>181.0913004821554</v>
       </c>
       <c r="D174">
-        <v>269.2040603168516</v>
+        <v>269.2040603168515</v>
       </c>
       <c r="E174">
         <v>388.4647957663007</v>
@@ -3352,7 +3352,7 @@
         <v>707.9160207250075</v>
       </c>
       <c r="D176">
-        <v>626.1445892334925</v>
+        <v>626.1445892334924</v>
       </c>
       <c r="E176">
         <v>484.7462423509097</v>
@@ -3386,7 +3386,7 @@
         <v>394.0604811941871</v>
       </c>
       <c r="D178">
-        <v>329.3754671151073</v>
+        <v>329.3754671151072</v>
       </c>
       <c r="E178">
         <v>187.9347033664935</v>
@@ -3400,7 +3400,7 @@
         <v>79.00885512174162</v>
       </c>
       <c r="C179">
-        <v>59.28897051984276</v>
+        <v>59.28897051984275</v>
       </c>
       <c r="D179">
         <v>96.85141159716513</v>
@@ -3448,16 +3448,16 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>5.435368657089343</v>
+        <v>5.435368657089342</v>
       </c>
       <c r="C182">
-        <v>4.545991092545686</v>
+        <v>4.545991092545685</v>
       </c>
       <c r="D182">
-        <v>3.868255656123336</v>
+        <v>3.868255656123334</v>
       </c>
       <c r="E182">
-        <v>3.260185611108449</v>
+        <v>3.260185611108448</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3468,10 +3468,10 @@
         <v>8.24968663674022</v>
       </c>
       <c r="C183">
-        <v>5.531589723732414</v>
+        <v>5.531589723732412</v>
       </c>
       <c r="D183">
-        <v>6.09785458500488</v>
+        <v>6.097854585004879</v>
       </c>
       <c r="E183">
         <v>13.6800240346645</v>
@@ -3482,16 +3482,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>8.782305306168649</v>
+        <v>8.78230530616865</v>
       </c>
       <c r="C184">
-        <v>6.787251820630004</v>
+        <v>6.787251820630003</v>
       </c>
       <c r="D184">
-        <v>7.271407924683299</v>
+        <v>7.271407924683297</v>
       </c>
       <c r="E184">
-        <v>16.60239227340737</v>
+        <v>16.60239227340736</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3499,13 +3499,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>885.5491183720053</v>
+        <v>885.5491183720056</v>
       </c>
       <c r="C185">
         <v>647.5038236881024</v>
       </c>
       <c r="D185">
-        <v>804.7024769982851</v>
+        <v>804.702476998285</v>
       </c>
       <c r="E185">
         <v>1838.714944279866</v>
@@ -3519,10 +3519,10 @@
         <v>613.7448766805584</v>
       </c>
       <c r="C186">
-        <v>436.0750938863845</v>
+        <v>436.0750938863844</v>
       </c>
       <c r="D186">
-        <v>453.2679915658523</v>
+        <v>453.2679915658522</v>
       </c>
       <c r="E186">
         <v>724.2719297388663</v>
@@ -3536,10 +3536,10 @@
         <v>284.2183819869273</v>
       </c>
       <c r="C187">
-        <v>224.2831752046783</v>
+        <v>224.2831752046782</v>
       </c>
       <c r="D187">
-        <v>312.3175180318636</v>
+        <v>312.3175180318635</v>
       </c>
       <c r="E187">
         <v>881.2097912367984</v>
@@ -3553,10 +3553,10 @@
         <v>3.366355839246058</v>
       </c>
       <c r="C188">
-        <v>2.910885367234168</v>
+        <v>2.910885367234167</v>
       </c>
       <c r="D188">
-        <v>2.510271045939763</v>
+        <v>2.510271045939762</v>
       </c>
       <c r="E188">
         <v>5.386018538365249</v>
@@ -3607,7 +3607,7 @@
         <v>34.36796625236817</v>
       </c>
       <c r="D191">
-        <v>47.46592947941177</v>
+        <v>47.46592947941176</v>
       </c>
       <c r="E191">
         <v>159.1405695556774</v>
@@ -3638,10 +3638,10 @@
         <v>340.030987322515</v>
       </c>
       <c r="C193">
-        <v>321.6026696533777</v>
+        <v>321.6026696533776</v>
       </c>
       <c r="D193">
-        <v>392.7786963105092</v>
+        <v>392.7786963105091</v>
       </c>
       <c r="E193">
         <v>654.1689490540731</v>
@@ -3655,10 +3655,10 @@
         <v>182.8712629393654</v>
       </c>
       <c r="C194">
-        <v>228.3997563829019</v>
+        <v>228.3997563829018</v>
       </c>
       <c r="D194">
-        <v>273.9003805048263</v>
+        <v>273.9003805048262</v>
       </c>
       <c r="E194">
         <v>319.0314860969876</v>
@@ -3689,10 +3689,10 @@
         <v>373.4708397426328</v>
       </c>
       <c r="C196">
-        <v>509.5834018450968</v>
+        <v>509.5834018450967</v>
       </c>
       <c r="D196">
-        <v>407.0494572948968</v>
+        <v>407.0494572948967</v>
       </c>
       <c r="E196">
         <v>192.5321473689841</v>
@@ -3706,7 +3706,7 @@
         <v>312.2752989642034</v>
       </c>
       <c r="C197">
-        <v>372.0615350893199</v>
+        <v>372.0615350893198</v>
       </c>
       <c r="D197">
         <v>341.4580296973123</v>
@@ -3720,7 +3720,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>89.69723105714949</v>
+        <v>89.69723105714951</v>
       </c>
       <c r="C198">
         <v>121.1977820905871</v>
@@ -3729,7 +3729,7 @@
         <v>152.6075863103223</v>
       </c>
       <c r="E198">
-        <v>180.1135080246967</v>
+        <v>180.1135080246966</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3740,7 +3740,7 @@
         <v>613.2530714468559</v>
       </c>
       <c r="C199">
-        <v>690.4899964630459</v>
+        <v>690.4899964630458</v>
       </c>
       <c r="D199">
         <v>551.0862663913275</v>
@@ -3757,7 +3757,7 @@
         <v>603.0263024095689</v>
       </c>
       <c r="C200">
-        <v>638.5124879576304</v>
+        <v>638.5124879576299</v>
       </c>
       <c r="D200">
         <v>502.7127923317616</v>
@@ -3771,7 +3771,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>6.619399594177684</v>
+        <v>6.619399594177683</v>
       </c>
       <c r="C201">
         <v>6.279846725173303</v>
@@ -3811,7 +3811,7 @@
         <v>560.3290859624086</v>
       </c>
       <c r="D203">
-        <v>588.7752683768791</v>
+        <v>588.7752683768789</v>
       </c>
       <c r="E203">
         <v>618.8626716398592</v>
@@ -3822,13 +3822,13 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>597.3935601784605</v>
+        <v>597.3935601784602</v>
       </c>
       <c r="C204">
-        <v>615.3229661790409</v>
+        <v>615.3229661790407</v>
       </c>
       <c r="D204">
-        <v>557.6643828300765</v>
+        <v>557.6643828300764</v>
       </c>
       <c r="E204">
         <v>455.0542024236711</v>
@@ -3842,13 +3842,13 @@
         <v>132.0901676619452</v>
       </c>
       <c r="C205">
-        <v>86.36011678075096</v>
+        <v>86.36011678075093</v>
       </c>
       <c r="D205">
         <v>99.82837642977317</v>
       </c>
       <c r="E205">
-        <v>221.0408370000911</v>
+        <v>221.040837000091</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3899,7 +3899,7 @@
         <v>389.5248530097951</v>
       </c>
       <c r="E208">
-        <v>199.740816978127</v>
+        <v>199.7408169781269</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3913,7 +3913,7 @@
         <v>81.9323259857649</v>
       </c>
       <c r="D209">
-        <v>76.80172649080417</v>
+        <v>76.80172649080416</v>
       </c>
       <c r="E209">
         <v>32.3622946201716</v>
@@ -3941,10 +3941,10 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>183.8010137163216</v>
+        <v>183.8010137163217</v>
       </c>
       <c r="C211">
-        <v>259.2859407012915</v>
+        <v>259.2859407012914</v>
       </c>
       <c r="D211">
         <v>259.7536786756521</v>
@@ -3978,7 +3978,7 @@
         <v>203.1165874280076</v>
       </c>
       <c r="C213">
-        <v>284.217458272651</v>
+        <v>284.2174582726511</v>
       </c>
       <c r="D213">
         <v>239.7076018521816</v>
@@ -4001,7 +4001,7 @@
         <v>264.6671391462753</v>
       </c>
       <c r="E214">
-        <v>83.52140513993469</v>
+        <v>83.5214051399347</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,7 +4009,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>312.6964353075789</v>
+        <v>312.696435307579</v>
       </c>
       <c r="C215">
         <v>390.2625269744401</v>
@@ -4035,7 +4035,7 @@
         <v>399.0743884294587</v>
       </c>
       <c r="E216">
-        <v>117.7944211880536</v>
+        <v>117.7944211880535</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4046,10 +4046,10 @@
         <v>394.9808711072766</v>
       </c>
       <c r="C217">
-        <v>481.0927736471221</v>
+        <v>481.092773647122</v>
       </c>
       <c r="D217">
-        <v>421.7032328988668</v>
+        <v>421.7032328988667</v>
       </c>
       <c r="E217">
         <v>201.6396798314823</v>
@@ -4063,10 +4063,10 @@
         <v>593.6005127750204</v>
       </c>
       <c r="C218">
-        <v>646.5902851705398</v>
+        <v>646.5902851705397</v>
       </c>
       <c r="D218">
-        <v>533.1296719405046</v>
+        <v>533.1296719405047</v>
       </c>
       <c r="E218">
         <v>260.0766244030328</v>
@@ -4080,7 +4080,7 @@
         <v>391.1176083741663</v>
       </c>
       <c r="C219">
-        <v>482.5856878530854</v>
+        <v>482.5856878530853</v>
       </c>
       <c r="D219">
         <v>459.3906917479101</v>
@@ -4094,7 +4094,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>277.753895715235</v>
+        <v>277.7538957152351</v>
       </c>
       <c r="C220">
         <v>352.7176864960777</v>
@@ -4103,7 +4103,7 @@
         <v>368.2237762354712</v>
       </c>
       <c r="E220">
-        <v>287.7477689541431</v>
+        <v>287.7477689541432</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4111,7 +4111,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>556.5084178951652</v>
+        <v>556.5084178951653</v>
       </c>
       <c r="C221">
         <v>585.6903899159277</v>
@@ -4120,7 +4120,7 @@
         <v>592.5360335116617</v>
       </c>
       <c r="E221">
-        <v>514.1546873210066</v>
+        <v>514.1546873210065</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4165,10 +4165,10 @@
         <v>583.8871069566019</v>
       </c>
       <c r="C224">
-        <v>560.4970376041523</v>
+        <v>560.4970376041521</v>
       </c>
       <c r="D224">
-        <v>571.866840197255</v>
+        <v>571.8668401972549</v>
       </c>
       <c r="E224">
         <v>518.0395031044562</v>
@@ -4182,7 +4182,7 @@
         <v>270.3504980666006</v>
       </c>
       <c r="C225">
-        <v>366.7137820365789</v>
+        <v>366.7137820365788</v>
       </c>
       <c r="D225">
         <v>358.7095480023369</v>
@@ -4199,13 +4199,13 @@
         <v>344.9557663206522</v>
       </c>
       <c r="C226">
-        <v>360.2906157931876</v>
+        <v>360.2906157931874</v>
       </c>
       <c r="D226">
         <v>360.9323024734065</v>
       </c>
       <c r="E226">
-        <v>262.9214918162265</v>
+        <v>262.9214918162266</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4247,10 +4247,10 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>529.6154791180329</v>
+        <v>529.615479118033</v>
       </c>
       <c r="C229">
-        <v>655.1753464176508</v>
+        <v>655.1753464176506</v>
       </c>
       <c r="D229">
         <v>534.2663278535882</v>
@@ -4264,7 +4264,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>92.35257069758987</v>
+        <v>92.3525706975899</v>
       </c>
       <c r="C230">
         <v>112.882286010557</v>
@@ -4281,7 +4281,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>166.0107230358391</v>
+        <v>166.0107230358392</v>
       </c>
       <c r="C231">
         <v>149.8160905408724</v>
@@ -4290,7 +4290,7 @@
         <v>184.0337493626832</v>
       </c>
       <c r="E231">
-        <v>282.892704594799</v>
+        <v>282.8927045947989</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4318,7 +4318,7 @@
         <v>17.91965798632523</v>
       </c>
       <c r="C233">
-        <v>14.81115972298156</v>
+        <v>14.81115972298155</v>
       </c>
       <c r="D233">
         <v>15.93372937671041</v>
@@ -4332,13 +4332,13 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>808.0294716413229</v>
+        <v>808.029471641323</v>
       </c>
       <c r="C234">
         <v>684.1306392157021</v>
       </c>
       <c r="D234">
-        <v>698.3880995289605</v>
+        <v>698.3880995289604</v>
       </c>
       <c r="E234">
         <v>848.7782401533814</v>
@@ -4349,7 +4349,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>39.55389022020461</v>
+        <v>39.55389022020462</v>
       </c>
       <c r="C235">
         <v>37.48661036798367</v>
@@ -4366,13 +4366,13 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>68.21916251870348</v>
+        <v>68.2191625187035</v>
       </c>
       <c r="C236">
         <v>59.50649741137071</v>
       </c>
       <c r="D236">
-        <v>56.9119522143603</v>
+        <v>56.91195221436028</v>
       </c>
       <c r="E236">
         <v>56.84147466940051</v>
@@ -4406,7 +4406,7 @@
         <v>614.2510164770529</v>
       </c>
       <c r="D238">
-        <v>629.0368580829237</v>
+        <v>629.0368580829236</v>
       </c>
       <c r="E238">
         <v>410.3665891428288</v>
@@ -4426,7 +4426,7 @@
         <v>11.79609279008023</v>
       </c>
       <c r="E239">
-        <v>6.792675440508633</v>
+        <v>6.792675440508632</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4434,13 +4434,13 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>733.4112806707008</v>
+        <v>733.4112806707009</v>
       </c>
       <c r="C240">
-        <v>547.1351321996316</v>
+        <v>547.1351321996315</v>
       </c>
       <c r="D240">
-        <v>654.4042240317093</v>
+        <v>654.4042240317092</v>
       </c>
       <c r="E240">
         <v>1055.516716062056</v>
@@ -4454,7 +4454,7 @@
         <v>10.02303347193108</v>
       </c>
       <c r="C241">
-        <v>7.531471683021032</v>
+        <v>7.531471683021033</v>
       </c>
       <c r="D241">
         <v>9.482896174660144</v>
@@ -4468,7 +4468,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>181.9559071894326</v>
+        <v>181.9559071894327</v>
       </c>
       <c r="C242">
         <v>135.8280125036938</v>
@@ -4485,13 +4485,13 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>361.932730193879</v>
+        <v>361.9327301938791</v>
       </c>
       <c r="C243">
         <v>376.6107000091196</v>
       </c>
       <c r="D243">
-        <v>470.8459815430432</v>
+        <v>470.8459815430431</v>
       </c>
       <c r="E243">
         <v>673.6980823006654</v>
@@ -4502,16 +4502,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>439.4607582996237</v>
+        <v>439.4607582996238</v>
       </c>
       <c r="C244">
-        <v>345.5464638093971</v>
+        <v>345.546463809397</v>
       </c>
       <c r="D244">
-        <v>437.5312455243811</v>
+        <v>437.531245524381</v>
       </c>
       <c r="E244">
-        <v>812.030156266064</v>
+        <v>812.0301562660638</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4536,10 +4536,10 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>6.275389360600227</v>
+        <v>6.275389360600228</v>
       </c>
       <c r="C246">
-        <v>5.86468490813095</v>
+        <v>5.864684908130949</v>
       </c>
       <c r="D246">
         <v>6.459751509064056</v>
@@ -4570,10 +4570,10 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>70.69715118831377</v>
+        <v>70.69715118831378</v>
       </c>
       <c r="C248">
-        <v>65.29992437292726</v>
+        <v>65.29992437292725</v>
       </c>
       <c r="D248">
         <v>49.6586645575192</v>
@@ -4593,7 +4593,7 @@
         <v>1.043319935417954</v>
       </c>
       <c r="D249">
-        <v>1.059177092602272</v>
+        <v>1.059177092602271</v>
       </c>
       <c r="E249">
         <v>0.9847457948777341</v>
@@ -4610,10 +4610,10 @@
         <v>692.3230051916455</v>
       </c>
       <c r="D250">
-        <v>735.6052997742411</v>
+        <v>735.605299774241</v>
       </c>
       <c r="E250">
-        <v>884.84206718012</v>
+        <v>884.8420671801202</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4641,10 +4641,10 @@
         <v>872.2197119760822</v>
       </c>
       <c r="C252">
-        <v>844.0092808314764</v>
+        <v>844.0092808314763</v>
       </c>
       <c r="D252">
-        <v>958.1535080740085</v>
+        <v>958.1535080740084</v>
       </c>
       <c r="E252">
         <v>1206.864257128032</v>
@@ -4672,7 +4672,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>233.7997244441119</v>
+        <v>233.799724444112</v>
       </c>
       <c r="C254">
         <v>198.1426267064718</v>
@@ -4692,7 +4692,7 @@
         <v>10.52024024588253</v>
       </c>
       <c r="C255">
-        <v>9.394844619806745</v>
+        <v>9.394844619806744</v>
       </c>
       <c r="D255">
         <v>9.442120426050804</v>
@@ -4712,7 +4712,7 @@
         <v>362.059503956619</v>
       </c>
       <c r="D256">
-        <v>338.7235630984335</v>
+        <v>338.7235630984334</v>
       </c>
       <c r="E256">
         <v>331.7961195781378</v>
@@ -4726,13 +4726,13 @@
         <v>75.3501352720189</v>
       </c>
       <c r="C257">
-        <v>66.87404577417978</v>
+        <v>66.87404577417976</v>
       </c>
       <c r="D257">
-        <v>58.76308824894357</v>
+        <v>58.76308824894356</v>
       </c>
       <c r="E257">
-        <v>49.49473301573414</v>
+        <v>49.49473301573415</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4746,10 +4746,10 @@
         <v>117.1849583598495</v>
       </c>
       <c r="D258">
-        <v>123.2959938872458</v>
+        <v>123.2959938872457</v>
       </c>
       <c r="E258">
-        <v>136.0909632119012</v>
+        <v>136.0909632119013</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4757,16 +4757,16 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>28.28066137417731</v>
+        <v>28.28066137417732</v>
       </c>
       <c r="C259">
-        <v>21.19302438422811</v>
+        <v>21.1930243842281</v>
       </c>
       <c r="D259">
         <v>20.15415284695363</v>
       </c>
       <c r="E259">
-        <v>23.71281934752824</v>
+        <v>23.71281934752825</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4777,13 +4777,13 @@
         <v>386.4223048306603</v>
       </c>
       <c r="C260">
-        <v>401.7161124982003</v>
+        <v>401.7161124982002</v>
       </c>
       <c r="D260">
         <v>456.6247601590944</v>
       </c>
       <c r="E260">
-        <v>405.8045327914642</v>
+        <v>405.8045327914641</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4794,7 +4794,7 @@
         <v>12.56639843348568</v>
       </c>
       <c r="C261">
-        <v>12.60617159386891</v>
+        <v>12.6061715938689</v>
       </c>
       <c r="D261">
         <v>20.25056928026455</v>
@@ -4811,10 +4811,10 @@
         <v>318.3771723672465</v>
       </c>
       <c r="C262">
-        <v>390.108723137753</v>
+        <v>390.1087231377529</v>
       </c>
       <c r="D262">
-        <v>477.7284516615239</v>
+        <v>477.7284516615238</v>
       </c>
       <c r="E262">
         <v>415.5467775231181</v>
@@ -4828,7 +4828,7 @@
         <v>27.90681748027127</v>
       </c>
       <c r="C263">
-        <v>22.58225860916715</v>
+        <v>22.58225860916714</v>
       </c>
       <c r="D263">
         <v>23.70156092786946</v>
@@ -4845,13 +4845,13 @@
         <v>59.60619266499311</v>
       </c>
       <c r="C264">
-        <v>39.29428696624786</v>
+        <v>39.29428696624785</v>
       </c>
       <c r="D264">
         <v>48.30896187956551</v>
       </c>
       <c r="E264">
-        <v>80.96318677984904</v>
+        <v>80.96318677984902</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4879,7 +4879,7 @@
         <v>167.933019758518</v>
       </c>
       <c r="C266">
-        <v>141.9442160020044</v>
+        <v>141.9442160020043</v>
       </c>
       <c r="D266">
         <v>176.2074594848316</v>
@@ -4893,10 +4893,10 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>38.66347632323878</v>
+        <v>38.66347632323877</v>
       </c>
       <c r="C267">
-        <v>39.29428696624786</v>
+        <v>39.29428696624785</v>
       </c>
       <c r="D267">
         <v>54.6893908070553</v>
@@ -4913,7 +4913,7 @@
         <v>67.02079164525698</v>
       </c>
       <c r="C268">
-        <v>76.96399499414701</v>
+        <v>76.96399499414699</v>
       </c>
       <c r="D268">
         <v>101.2528464013228</v>
@@ -4930,7 +4930,7 @@
         <v>126.2623842602609</v>
       </c>
       <c r="C269">
-        <v>147.956645549093</v>
+        <v>147.9566455490929</v>
       </c>
       <c r="D269">
         <v>209.2558825627337</v>
@@ -4953,7 +4953,7 @@
         <v>399.50610558977</v>
       </c>
       <c r="E270">
-        <v>361.7430750122035</v>
+        <v>361.7430750122034</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,7 +4961,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>41.11066714620468</v>
+        <v>41.11066714620467</v>
       </c>
       <c r="C271">
         <v>33.81822076412477</v>
@@ -4978,10 +4978,10 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>67.95844977229753</v>
+        <v>67.95844977229751</v>
       </c>
       <c r="C272">
-        <v>66.02605006329122</v>
+        <v>66.02605006329121</v>
       </c>
       <c r="D272">
         <v>77.88433416452452</v>
@@ -5004,7 +5004,7 @@
         <v>198.5965010189692</v>
       </c>
       <c r="E273">
-        <v>163.349949603004</v>
+        <v>163.3499496030039</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5018,7 +5018,7 @@
         <v>80.69455263539729</v>
       </c>
       <c r="D274">
-        <v>99.29825050948462</v>
+        <v>99.29825050948459</v>
       </c>
       <c r="E274">
         <v>121.1042729815374</v>
@@ -5029,7 +5029,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>913.0286786234997</v>
+        <v>913.0286786235</v>
       </c>
       <c r="C275">
         <v>933.8374561603323</v>
@@ -5049,7 +5049,7 @@
         <v>46.24751945208658</v>
       </c>
       <c r="C276">
-        <v>32.53587909833518</v>
+        <v>32.53587909833519</v>
       </c>
       <c r="D276">
         <v>38.79698563748388</v>
@@ -5066,10 +5066,10 @@
         <v>124.2852262732284</v>
       </c>
       <c r="C277">
-        <v>83.72671283135843</v>
+        <v>83.72671283135845</v>
       </c>
       <c r="D277">
-        <v>87.01207083123938</v>
+        <v>87.01207083123937</v>
       </c>
       <c r="E277">
         <v>103.7733000986488</v>
@@ -5114,7 +5114,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>58.58557878977192</v>
+        <v>58.5855787897719</v>
       </c>
       <c r="C280">
         <v>48.25570815281336</v>
@@ -5137,7 +5137,7 @@
         <v>318.9569208585651</v>
       </c>
       <c r="D281">
-        <v>343.1264970160397</v>
+        <v>343.1264970160396</v>
       </c>
       <c r="E281">
         <v>276.0081595586627</v>
@@ -5151,7 +5151,7 @@
         <v>11.18489518802789</v>
       </c>
       <c r="C282">
-        <v>12.74796915795139</v>
+        <v>12.7479691579514</v>
       </c>
       <c r="D282">
         <v>16.21190212588392</v>
@@ -5168,7 +5168,7 @@
         <v>48.02925580741388</v>
       </c>
       <c r="C283">
-        <v>47.34959972953375</v>
+        <v>47.34959972953376</v>
       </c>
       <c r="D283">
         <v>61.32328195443051</v>
@@ -5202,13 +5202,13 @@
         <v>77.96010421923168</v>
       </c>
       <c r="C285">
-        <v>65.07175819667036</v>
+        <v>65.07175819667037</v>
       </c>
       <c r="D285">
         <v>74.77237231951437</v>
       </c>
       <c r="E285">
-        <v>86.58519015982056</v>
+        <v>86.58519015982057</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5236,7 +5236,7 @@
         <v>781.3066278727227</v>
       </c>
       <c r="C287">
-        <v>701.3802056975244</v>
+        <v>701.3802056975242</v>
       </c>
       <c r="D287">
         <v>720.7044369537934</v>
@@ -5250,13 +5250,13 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>581.3683697263284</v>
+        <v>581.3683697263285</v>
       </c>
       <c r="C288">
-        <v>512.2220078578371</v>
+        <v>512.2220078578368</v>
       </c>
       <c r="D288">
-        <v>614.5029943022173</v>
+        <v>614.5029943022172</v>
       </c>
       <c r="E288">
         <v>938.6514194070578</v>
@@ -5270,10 +5270,10 @@
         <v>9.627764734987576</v>
       </c>
       <c r="C289">
-        <v>6.899513565537855</v>
+        <v>6.899513565537854</v>
       </c>
       <c r="D289">
-        <v>7.446895667381708</v>
+        <v>7.446895667381705</v>
       </c>
       <c r="E289">
         <v>10.74246309597126</v>
@@ -5287,7 +5287,7 @@
         <v>203.6198271337483</v>
       </c>
       <c r="C290">
-        <v>131.132951479892</v>
+        <v>131.1329514798919</v>
       </c>
       <c r="D290">
         <v>155.5014950689995</v>
@@ -5304,10 +5304,10 @@
         <v>228.4267506710188</v>
       </c>
       <c r="C291">
-        <v>237.7761124307488</v>
+        <v>237.7761124307487</v>
       </c>
       <c r="D291">
-        <v>314.9768699877423</v>
+        <v>314.9768699877422</v>
       </c>
       <c r="E291">
         <v>498.607805175689</v>
@@ -5335,10 +5335,10 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>530.97000139403</v>
+        <v>530.9700013940301</v>
       </c>
       <c r="C293">
-        <v>610.3341618238188</v>
+        <v>610.3341618238186</v>
       </c>
       <c r="D293">
         <v>604.5339614821977</v>
@@ -5355,13 +5355,13 @@
         <v>43.92173499345037</v>
       </c>
       <c r="C294">
-        <v>33.76333100118126</v>
+        <v>33.76333100118124</v>
       </c>
       <c r="D294">
         <v>30.46924350652458</v>
       </c>
       <c r="E294">
-        <v>30.67151985163952</v>
+        <v>30.67151985163953</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5369,10 +5369,10 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>301.2989590227214</v>
+        <v>301.2989590227213</v>
       </c>
       <c r="C295">
-        <v>408.3612731842764</v>
+        <v>408.3612731842765</v>
       </c>
       <c r="D295">
         <v>438.920615745809</v>
@@ -5423,10 +5423,10 @@
         <v>241.9131572603452</v>
       </c>
       <c r="C298">
-        <v>295.7988139467002</v>
+        <v>295.7988139467001</v>
       </c>
       <c r="D298">
-        <v>342.9747237401301</v>
+        <v>342.9747237401299</v>
       </c>
       <c r="E298">
         <v>339.7924956263</v>
@@ -5471,13 +5471,13 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>398.9577406927762</v>
+        <v>398.9577406927763</v>
       </c>
       <c r="C301">
-        <v>422.126322322775</v>
+        <v>422.1263223227749</v>
       </c>
       <c r="D301">
-        <v>378.8359884342555</v>
+        <v>378.8359884342554</v>
       </c>
       <c r="E301">
         <v>260.3176173930167</v>
@@ -5491,10 +5491,10 @@
         <v>15.43022242749453</v>
       </c>
       <c r="C302">
-        <v>14.89657479396033</v>
+        <v>14.89657479396032</v>
       </c>
       <c r="D302">
-        <v>12.60512741773808</v>
+        <v>12.60512741773807</v>
       </c>
       <c r="E302">
         <v>10.23293998459251</v>
@@ -5505,7 +5505,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>69.54780088094392</v>
+        <v>69.54780088094394</v>
       </c>
       <c r="C303">
         <v>59.27562637242885</v>
@@ -5514,7 +5514,7 @@
         <v>54.63953299945216</v>
       </c>
       <c r="E303">
-        <v>52.89656230879597</v>
+        <v>52.89656230879596</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5528,7 +5528,7 @@
         <v>47.42882524586877</v>
       </c>
       <c r="D304">
-        <v>36.74260067026532</v>
+        <v>36.74260067026531</v>
       </c>
       <c r="E304">
         <v>13.21967409563763</v>
@@ -5539,7 +5539,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>214.6703389679086</v>
+        <v>214.6703389679085</v>
       </c>
       <c r="C305">
         <v>245.1980776861895</v>
@@ -5559,7 +5559,7 @@
         <v>266.228629712141</v>
       </c>
       <c r="C306">
-        <v>304.3495150556903</v>
+        <v>304.3495150556902</v>
       </c>
       <c r="D306">
         <v>309.4381612630347</v>
@@ -5590,13 +5590,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>5.426581546050764</v>
+        <v>5.426581546050765</v>
       </c>
       <c r="C308">
         <v>6.411806857487398</v>
       </c>
       <c r="D308">
-        <v>6.211944721772396</v>
+        <v>6.211944721772395</v>
       </c>
       <c r="E308">
         <v>4.761817895998284</v>
@@ -5641,7 +5641,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>62.08288246133904</v>
+        <v>62.08288246133905</v>
       </c>
       <c r="C311">
         <v>61.17629459204996</v>
@@ -5650,7 +5650,7 @@
         <v>70.00310199686594</v>
       </c>
       <c r="E311">
-        <v>76.72167415304057</v>
+        <v>76.72167415304058</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5661,13 +5661,13 @@
         <v>12.94147202421443</v>
       </c>
       <c r="C312">
-        <v>9.353170767362281</v>
+        <v>9.353170767362279</v>
       </c>
       <c r="D312">
         <v>11.98935879253497</v>
       </c>
       <c r="E312">
-        <v>20.9476979340466</v>
+        <v>20.94769793404661</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5684,7 +5684,7 @@
         <v>24.41968674309277</v>
       </c>
       <c r="E313">
-        <v>28.26587995112021</v>
+        <v>28.26587995112022</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5695,13 +5695,13 @@
         <v>26.17952874875743</v>
       </c>
       <c r="C314">
-        <v>29.09604254987742</v>
+        <v>29.09604254987741</v>
       </c>
       <c r="D314">
         <v>29.30362409171132</v>
       </c>
       <c r="E314">
-        <v>21.80510739086416</v>
+        <v>21.80510739086417</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5709,13 +5709,13 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>926.5987109281008</v>
+        <v>926.598710928101</v>
       </c>
       <c r="C315">
         <v>836.7946141667237</v>
       </c>
       <c r="D315">
-        <v>840.5460023714968</v>
+        <v>840.5460023714967</v>
       </c>
       <c r="E315">
         <v>953.760952418428</v>
@@ -5729,10 +5729,10 @@
         <v>344.2037407306805</v>
       </c>
       <c r="C316">
-        <v>388.3199139437212</v>
+        <v>388.3199139437211</v>
       </c>
       <c r="D316">
-        <v>370.9130488465885</v>
+        <v>370.9130488465883</v>
       </c>
       <c r="E316">
         <v>309.3249857468117</v>
@@ -5749,7 +5749,7 @@
         <v>678.0203771592427</v>
       </c>
       <c r="D317">
-        <v>726.0027476366361</v>
+        <v>726.0027476366358</v>
       </c>
       <c r="E317">
         <v>791.5257474758889</v>
@@ -5763,7 +5763,7 @@
         <v>495.1480228545403</v>
       </c>
       <c r="C318">
-        <v>616.2033564358532</v>
+        <v>616.2033564358529</v>
       </c>
       <c r="D318">
         <v>561.6791884523111</v>
@@ -5780,7 +5780,7 @@
         <v>417.9433390492725</v>
       </c>
       <c r="C319">
-        <v>487.3780517156911</v>
+        <v>487.3780517156909</v>
       </c>
       <c r="D319">
         <v>463.1776666634793</v>
@@ -5794,10 +5794,10 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>290.7591968202879</v>
+        <v>290.7591968202878</v>
       </c>
       <c r="C320">
-        <v>317.6603889036901</v>
+        <v>317.66038890369</v>
       </c>
       <c r="D320">
         <v>361.3420381757225</v>
@@ -5845,10 +5845,10 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>427.4603590168582</v>
+        <v>427.4603590168583</v>
       </c>
       <c r="C323">
-        <v>509.494377886924</v>
+        <v>509.4943778869239</v>
       </c>
       <c r="D323">
         <v>598.8585140242448</v>
@@ -5865,7 +5865,7 @@
         <v>241.3082671869361</v>
       </c>
       <c r="C324">
-        <v>261.3762979494257</v>
+        <v>261.3762979494256</v>
       </c>
       <c r="D324">
         <v>337.1642042951557</v>
@@ -5896,16 +5896,16 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>328.1284705244779</v>
+        <v>328.128470524478</v>
       </c>
       <c r="C326">
-        <v>310.2390056068471</v>
+        <v>310.2390056068469</v>
       </c>
       <c r="D326">
         <v>359.3930887729067</v>
       </c>
       <c r="E326">
-        <v>511.5895689571936</v>
+        <v>511.5895689571933</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5933,13 +5933,13 @@
         <v>31.14389048685841</v>
       </c>
       <c r="C328">
-        <v>26.11592045295973</v>
+        <v>26.11592045295972</v>
       </c>
       <c r="D328">
-        <v>22.93443455922275</v>
+        <v>22.93443455922274</v>
       </c>
       <c r="E328">
-        <v>21.31403429760892</v>
+        <v>21.31403429760891</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5953,7 +5953,7 @@
         <v>86.62708794612031</v>
       </c>
       <c r="D329">
-        <v>70.12694405774815</v>
+        <v>70.12694405774813</v>
       </c>
       <c r="E329">
         <v>47.46008964535793</v>
@@ -5967,7 +5967,7 @@
         <v>55.36691642108161</v>
       </c>
       <c r="C330">
-        <v>44.55068783151955</v>
+        <v>44.55068783151953</v>
       </c>
       <c r="D330">
         <v>44.59473386515533</v>
@@ -5984,13 +5984,13 @@
         <v>102.669158731195</v>
       </c>
       <c r="C331">
-        <v>88.86604042469561</v>
+        <v>88.86604042469558</v>
       </c>
       <c r="D331">
         <v>121.0449470638357</v>
       </c>
       <c r="E331">
-        <v>288.1423726643446</v>
+        <v>288.1423726643445</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6001,7 +6001,7 @@
         <v>1315.456290915345</v>
       </c>
       <c r="C332">
-        <v>1005.812612486271</v>
+        <v>1005.81261248627</v>
       </c>
       <c r="D332">
         <v>1014.267877374424</v>
@@ -6018,7 +6018,7 @@
         <v>541.7796830596455</v>
       </c>
       <c r="C333">
-        <v>484.2981322387579</v>
+        <v>484.2981322387577</v>
       </c>
       <c r="D333">
         <v>534.8450490193609</v>
@@ -6052,7 +6052,7 @@
         <v>791.1148594743502</v>
       </c>
       <c r="C335">
-        <v>644.256892555487</v>
+        <v>644.2568925554868</v>
       </c>
       <c r="D335">
         <v>652.8497854944293</v>
@@ -6069,10 +6069,10 @@
         <v>82.99703802923884</v>
       </c>
       <c r="C336">
-        <v>63.86194431728446</v>
+        <v>63.86194431728445</v>
       </c>
       <c r="D336">
-        <v>74.97459912875598</v>
+        <v>74.97459912875597</v>
       </c>
       <c r="E336">
         <v>151.6517969787601</v>
@@ -6086,10 +6086,10 @@
         <v>345.5041236883177</v>
       </c>
       <c r="C337">
-        <v>320.4229518330327</v>
+        <v>320.4229518330328</v>
       </c>
       <c r="D337">
-        <v>330.8777221599063</v>
+        <v>330.8777221599062</v>
       </c>
       <c r="E337">
         <v>261.1884138591973</v>
@@ -6103,10 +6103,10 @@
         <v>294.6738316161967</v>
       </c>
       <c r="C338">
-        <v>308.0533832901312</v>
+        <v>308.0533832901311</v>
       </c>
       <c r="D338">
-        <v>282.2860277509673</v>
+        <v>282.2860277509672</v>
       </c>
       <c r="E338">
         <v>143.8578204131706</v>
@@ -6154,7 +6154,7 @@
         <v>88.69837386112025</v>
       </c>
       <c r="C341">
-        <v>75.0062867488263</v>
+        <v>75.00628674882628</v>
       </c>
       <c r="D341">
         <v>108.2145233751762</v>
@@ -6194,7 +6194,7 @@
         <v>35.31143497750666</v>
       </c>
       <c r="E343">
-        <v>46.78194997525035</v>
+        <v>46.78194997525034</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6202,7 +6202,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>19.35026840881782</v>
+        <v>19.35026840881783</v>
       </c>
       <c r="C344">
         <v>16.46860372337744</v>
@@ -6324,7 +6324,7 @@
         <v>39.99735320703486</v>
       </c>
       <c r="C351">
-        <v>44.06794180387031</v>
+        <v>44.06794180387029</v>
       </c>
       <c r="D351">
         <v>46.74675667697785</v>
@@ -6344,7 +6344,7 @@
         <v>33.50999741335971</v>
       </c>
       <c r="D352">
-        <v>46.19679483371928</v>
+        <v>46.19679483371927</v>
       </c>
       <c r="E352">
         <v>54.15406582592874</v>
@@ -6412,7 +6412,7 @@
         <v>151.5510207710127</v>
       </c>
       <c r="D356">
-        <v>143.0872411088354</v>
+        <v>143.0872411088353</v>
       </c>
       <c r="E356">
         <v>118.0234968555063</v>
@@ -6426,10 +6426,10 @@
         <v>30.8992011352532</v>
       </c>
       <c r="C357">
-        <v>27.03727131126047</v>
+        <v>27.03727131126048</v>
       </c>
       <c r="D357">
-        <v>30.91834858130614</v>
+        <v>30.91834858130613</v>
       </c>
       <c r="E357">
         <v>37.91057777782928</v>
@@ -6446,7 +6446,7 @@
         <v>53.36303548275094</v>
       </c>
       <c r="D358">
-        <v>61.11766580025633</v>
+        <v>61.1176658002563</v>
       </c>
       <c r="E358">
         <v>74.39056771498575</v>
@@ -6480,7 +6480,7 @@
         <v>26.56090195455108</v>
       </c>
       <c r="D360">
-        <v>31.21689589495926</v>
+        <v>31.21689589495925</v>
       </c>
       <c r="E360">
         <v>26.87542359243334</v>
@@ -6497,7 +6497,7 @@
         <v>1285.719177262152</v>
       </c>
       <c r="D361">
-        <v>1416.46697748074</v>
+        <v>1416.466977480739</v>
       </c>
       <c r="E361">
         <v>1498.766313064118</v>
@@ -6508,13 +6508,13 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>8.499333301487065</v>
+        <v>8.499333301487066</v>
       </c>
       <c r="C362">
         <v>8.489537660615653</v>
       </c>
       <c r="D362">
-        <v>9.513901151796523</v>
+        <v>9.513901151796519</v>
       </c>
       <c r="E362">
         <v>9.482120360418808</v>
@@ -6525,10 +6525,10 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>92.44728547761535</v>
+        <v>92.44728547761534</v>
       </c>
       <c r="C363">
-        <v>98.85246246449239</v>
+        <v>98.85246246449238</v>
       </c>
       <c r="D363">
         <v>118.0121876204972</v>
@@ -6548,7 +6548,7 @@
         <v>555.7855025180743</v>
       </c>
       <c r="D364">
-        <v>566.0356874718021</v>
+        <v>566.0356874718019</v>
       </c>
       <c r="E364">
         <v>581.5939921688557</v>
@@ -6562,10 +6562,10 @@
         <v>21.9598714135459</v>
       </c>
       <c r="C365">
-        <v>6.09413928199643</v>
+        <v>6.094139281996429</v>
       </c>
       <c r="D365">
-        <v>8.203415760460901</v>
+        <v>8.203415760460899</v>
       </c>
       <c r="E365">
         <v>53.25187360971569</v>
@@ -6613,10 +6613,10 @@
         <v>51.9064961329104</v>
       </c>
       <c r="C368">
-        <v>44.41212468937255</v>
+        <v>44.41212468937253</v>
       </c>
       <c r="D368">
-        <v>56.4330373955691</v>
+        <v>56.43303739556909</v>
       </c>
       <c r="E368">
         <v>90.82171511148127</v>
@@ -6630,7 +6630,7 @@
         <v>9.023784106889337</v>
       </c>
       <c r="C369">
-        <v>7.467119301595939</v>
+        <v>7.467119301595937</v>
       </c>
       <c r="D369">
         <v>9.685986732481689</v>
@@ -6647,7 +6647,7 @@
         <v>114.7072215407073</v>
       </c>
       <c r="C370">
-        <v>110.4855355316088</v>
+        <v>110.4855355316087</v>
       </c>
       <c r="D370">
         <v>129.9949888146295</v>
@@ -6681,7 +6681,7 @@
         <v>77.73547244907438</v>
       </c>
       <c r="C372">
-        <v>89.13118832802053</v>
+        <v>89.13118832802047</v>
       </c>
       <c r="D372">
         <v>120.9953357428475</v>
@@ -6695,7 +6695,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>768.7015034415537</v>
+        <v>768.7015034415538</v>
       </c>
       <c r="C373">
         <v>798.7369459284711</v>
@@ -6715,7 +6715,7 @@
         <v>416.9418373433156</v>
       </c>
       <c r="C374">
-        <v>437.2116326539839</v>
+        <v>437.2116326539838</v>
       </c>
       <c r="D374">
         <v>437.1181061200157</v>
@@ -6729,7 +6729,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>20.16315087030441</v>
+        <v>20.16315087030442</v>
       </c>
       <c r="C375">
         <v>26.5781837369616</v>
@@ -6755,7 +6755,7 @@
         <v>37.44377418155028</v>
       </c>
       <c r="E376">
-        <v>59.78228479782362</v>
+        <v>59.78228479782363</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6763,7 +6763,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>123.5336196127848</v>
+        <v>123.5336196127849</v>
       </c>
       <c r="C377">
         <v>115.5771659385133</v>
@@ -6786,10 +6786,10 @@
         <v>792.5040148142544</v>
       </c>
       <c r="D378">
-        <v>779.1588455457784</v>
+        <v>779.1588455457783</v>
       </c>
       <c r="E378">
-        <v>663.1902613267757</v>
+        <v>663.1902613267756</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6806,7 +6806,7 @@
         <v>10.76186250753837</v>
       </c>
       <c r="E379">
-        <v>8.790445290045628</v>
+        <v>8.790445290045627</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6814,7 +6814,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>3.782716306841457</v>
+        <v>3.782716306841458</v>
       </c>
       <c r="C380">
         <v>3.451343098105704</v>
@@ -6848,7 +6848,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>47.48641073871503</v>
+        <v>47.48641073871504</v>
       </c>
       <c r="C382">
         <v>48.06637697993276</v>
@@ -6857,7 +6857,7 @@
         <v>48.99074171912743</v>
       </c>
       <c r="E382">
-        <v>40.01337963790901</v>
+        <v>40.013379637909</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6874,7 +6874,7 @@
         <v>585.2138214476709</v>
       </c>
       <c r="E383">
-        <v>485.4323671821348</v>
+        <v>485.4323671821347</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6885,10 +6885,10 @@
         <v>2.94544784941601</v>
       </c>
       <c r="C384">
-        <v>2.963654473981259</v>
+        <v>2.963654473981257</v>
       </c>
       <c r="D384">
-        <v>3.145667884881277</v>
+        <v>3.145667884881276</v>
       </c>
       <c r="E384">
         <v>2.87363073043279</v>
@@ -6902,10 +6902,10 @@
         <v>138.8706382608789</v>
       </c>
       <c r="C385">
-        <v>98.22279585960646</v>
+        <v>98.22279585960645</v>
       </c>
       <c r="D385">
-        <v>96.56789878637123</v>
+        <v>96.5678987863712</v>
       </c>
       <c r="E385">
         <v>122.9584833976081</v>
@@ -6916,10 +6916,10 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>125.4199469825594</v>
+        <v>125.4199469825595</v>
       </c>
       <c r="C386">
-        <v>140.0777472707509</v>
+        <v>140.0777472707508</v>
       </c>
       <c r="D386">
         <v>148.4010592374344</v>
@@ -6933,10 +6933,10 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>86.07251263508979</v>
+        <v>86.07251263508982</v>
       </c>
       <c r="C387">
-        <v>99.07938221589697</v>
+        <v>99.07938221589694</v>
       </c>
       <c r="D387">
         <v>124.1525201463503</v>
@@ -6950,7 +6950,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>744.0889492292864</v>
+        <v>744.0889492292863</v>
       </c>
       <c r="C388">
         <v>663.5232557274185</v>
@@ -6967,7 +6967,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>35.92282673735116</v>
+        <v>35.92282673735115</v>
       </c>
       <c r="C389">
         <v>28.87255183937432</v>
@@ -6984,7 +6984,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>32.25723217231533</v>
+        <v>32.25723217231532</v>
       </c>
       <c r="C390">
         <v>27.17416643705818</v>
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>59.64640875585462</v>
+        <v>59.64640875585461</v>
       </c>
       <c r="C391">
         <v>48.22454485584565</v>
@@ -7038,7 +7038,7 @@
         <v>114.3783787084268</v>
       </c>
       <c r="C393">
-        <v>90.78994168071307</v>
+        <v>90.78994168071308</v>
       </c>
       <c r="D393">
         <v>93.69840481507124</v>
@@ -7055,7 +7055,7 @@
         <v>32.31027647130698</v>
       </c>
       <c r="C394">
-        <v>24.01850309013573</v>
+        <v>24.01850309013574</v>
       </c>
       <c r="D394">
         <v>27.58633238210219</v>
@@ -7072,7 +7072,7 @@
         <v>127.6679155477019</v>
       </c>
       <c r="C395">
-        <v>100.6118294664231</v>
+        <v>100.6118294664232</v>
       </c>
       <c r="D395">
         <v>102.826534235878</v>
@@ -7089,7 +7089,7 @@
         <v>39.85400538261594</v>
       </c>
       <c r="C396">
-        <v>28.17131225059848</v>
+        <v>28.17131225059849</v>
       </c>
       <c r="D396">
         <v>28.53559323292307</v>
@@ -7103,10 +7103,10 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>55.3450541802043</v>
+        <v>55.34505418020429</v>
       </c>
       <c r="C397">
-        <v>48.3814304496769</v>
+        <v>48.38143044967691</v>
       </c>
       <c r="D397">
         <v>51.75909063945547</v>
@@ -7123,7 +7123,7 @@
         <v>20.19346571439887</v>
       </c>
       <c r="C398">
-        <v>15.2211241864152</v>
+        <v>15.22112418641521</v>
       </c>
       <c r="D398">
         <v>16.17471582482984</v>
@@ -7137,13 +7137,13 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>620.3354894876383</v>
+        <v>620.3354894876384</v>
       </c>
       <c r="C399">
         <v>519.9071360849433</v>
       </c>
       <c r="D399">
-        <v>658.8879393981064</v>
+        <v>658.8879393981063</v>
       </c>
       <c r="E399">
         <v>643.9631408175655</v>
@@ -7160,7 +7160,7 @@
         <v>27.6390635788646</v>
       </c>
       <c r="D400">
-        <v>39.67981481094848</v>
+        <v>39.67981481094847</v>
       </c>
       <c r="E400">
         <v>46.45637070204316</v>
@@ -7188,13 +7188,13 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>31.60569732811088</v>
+        <v>31.60569732811089</v>
       </c>
       <c r="C402">
         <v>17.91672737428378</v>
       </c>
       <c r="D402">
-        <v>26.19522954187527</v>
+        <v>26.19522954187526</v>
       </c>
       <c r="E402">
         <v>45.83979254905209</v>
@@ -7205,13 +7205,13 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>61.8821376793801</v>
+        <v>61.88213767938011</v>
       </c>
       <c r="C403">
-        <v>45.60445490512659</v>
+        <v>45.60445490512658</v>
       </c>
       <c r="D403">
-        <v>73.77965566410731</v>
+        <v>73.7796556641073</v>
       </c>
       <c r="E403">
         <v>128.6484111748888</v>
@@ -7242,7 +7242,7 @@
         <v>11.21619307627703</v>
       </c>
       <c r="C405">
-        <v>8.574869252128487</v>
+        <v>8.574869252128485</v>
       </c>
       <c r="D405">
         <v>9.967653133294876</v>
@@ -7259,10 +7259,10 @@
         <v>8.972954461021622</v>
       </c>
       <c r="C406">
-        <v>6.941560823151632</v>
+        <v>6.941560823151631</v>
       </c>
       <c r="D406">
-        <v>7.752619103673792</v>
+        <v>7.752619103673791</v>
       </c>
       <c r="E406">
         <v>5.884557630230498</v>
@@ -7279,7 +7279,7 @@
         <v>80.42535461748011</v>
       </c>
       <c r="D407">
-        <v>99.36500191780185</v>
+        <v>99.36500191780183</v>
       </c>
       <c r="E407">
         <v>93.99242745427681</v>
@@ -7293,10 +7293,10 @@
         <v>0.5328910472309175</v>
       </c>
       <c r="C408">
-        <v>0.3706237539976044</v>
+        <v>0.3706237539976042</v>
       </c>
       <c r="D408">
-        <v>0.506964295498989</v>
+        <v>0.5069642954989889</v>
       </c>
       <c r="E408">
         <v>0.6103404380147845</v>
@@ -7307,7 +7307,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>1.598673141692752</v>
+        <v>1.598673141692753</v>
       </c>
       <c r="C409">
         <v>1.111871261992813</v>
@@ -7330,7 +7330,7 @@
         <v>565.5657304623107</v>
       </c>
       <c r="D410">
-        <v>628.5123177785773</v>
+        <v>628.5123177785772</v>
       </c>
       <c r="E410">
         <v>585.8920468674445</v>
@@ -7344,13 +7344,13 @@
         <v>16.31175771141388</v>
       </c>
       <c r="C411">
-        <v>9.428828159908763</v>
+        <v>9.428828159908761</v>
       </c>
       <c r="D411">
         <v>14.30550726154436</v>
       </c>
       <c r="E411">
-        <v>46.07669878758198</v>
+        <v>46.07669878758197</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7361,13 +7361,13 @@
         <v>2.718626285235647</v>
       </c>
       <c r="C412">
-        <v>2.357207039977191</v>
+        <v>2.35720703997719</v>
       </c>
       <c r="D412">
         <v>2.682282611539567</v>
       </c>
       <c r="E412">
-        <v>2.710394046328352</v>
+        <v>2.710394046328351</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7378,7 +7378,7 @@
         <v>20.69955366738115</v>
       </c>
       <c r="C413">
-        <v>14.55729797134931</v>
+        <v>14.5572979713493</v>
       </c>
       <c r="D413">
         <v>20.96463922822718</v>
@@ -7392,7 +7392,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>16.00917135096981</v>
+        <v>16.0091713509698</v>
       </c>
       <c r="C414">
         <v>15.00274938543498</v>
@@ -7409,10 +7409,10 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>212.1488808967435</v>
+        <v>212.1488808967436</v>
       </c>
       <c r="C415">
-        <v>184.9124550961552</v>
+        <v>184.9124550961551</v>
       </c>
       <c r="D415">
         <v>222.5788671563592</v>
@@ -7429,7 +7429,7 @@
         <v>11.02072108554512</v>
       </c>
       <c r="C416">
-        <v>9.564437332559748</v>
+        <v>9.564437332559745</v>
       </c>
       <c r="D416">
         <v>10.90182206480127</v>
@@ -7446,10 +7446,10 @@
         <v>77.51580427356546</v>
       </c>
       <c r="C417">
-        <v>67.66647193655128</v>
+        <v>67.66647193655126</v>
       </c>
       <c r="D417">
-        <v>80.54979951477254</v>
+        <v>80.54979951477253</v>
       </c>
       <c r="E417">
         <v>75.1181700183898</v>
@@ -7460,13 +7460,13 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.7453442718612066</v>
+        <v>0.7453442718612064</v>
       </c>
       <c r="C418">
-        <v>0.6096078552842458</v>
+        <v>0.6096078552842455</v>
       </c>
       <c r="D418">
-        <v>0.7528018646240425</v>
+        <v>0.7528018646240424</v>
       </c>
       <c r="E418">
         <v>0.807722258262256</v>
@@ -7483,7 +7483,7 @@
         <v>49.68618430633855</v>
       </c>
       <c r="D419">
-        <v>50.88639683364816</v>
+        <v>50.88639683364815</v>
       </c>
       <c r="E419">
         <v>48.37582346769187</v>
@@ -7511,16 +7511,16 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>96.36442221750845</v>
+        <v>96.36442221750843</v>
       </c>
       <c r="C421">
         <v>97.31036689535594</v>
       </c>
       <c r="D421">
-        <v>95.14540854974339</v>
+        <v>95.14540854974337</v>
       </c>
       <c r="E421">
-        <v>68.56409804615623</v>
+        <v>68.56409804615622</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7528,16 +7528,16 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>33.38113972240489</v>
+        <v>33.38113972240488</v>
       </c>
       <c r="C422">
         <v>37.0137591871906</v>
       </c>
       <c r="D422">
-        <v>42.81543384738453</v>
+        <v>42.81543384738452</v>
       </c>
       <c r="E422">
-        <v>39.87911825133577</v>
+        <v>39.87911825133576</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7554,7 +7554,7 @@
         <v>86.17857528279121</v>
       </c>
       <c r="E423">
-        <v>63.95447848271128</v>
+        <v>63.95447848271129</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7571,7 +7571,7 @@
         <v>102.5935420033229</v>
       </c>
       <c r="E424">
-        <v>65.5943369053449</v>
+        <v>65.59433690534492</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7579,16 +7579,16 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>15.11598779882486</v>
+        <v>15.11598779882485</v>
       </c>
       <c r="C425">
         <v>17.90988347767287</v>
       </c>
       <c r="D425">
-        <v>15.6310314046007</v>
+        <v>15.63103140460069</v>
       </c>
       <c r="E425">
-        <v>6.296702881789859</v>
+        <v>6.296702881789858</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7602,7 +7602,7 @@
         <v>21.73770563402311</v>
       </c>
       <c r="D426">
-        <v>19.697960064638</v>
+        <v>19.69796006463799</v>
       </c>
       <c r="E426">
         <v>21.31815949423709</v>
@@ -7636,10 +7636,10 @@
         <v>84.87107912876716</v>
       </c>
       <c r="D428">
-        <v>90.49294894083259</v>
+        <v>90.49294894083258</v>
       </c>
       <c r="E428">
-        <v>84.95555588214998</v>
+        <v>84.95555588214999</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7673,7 +7673,7 @@
         <v>40.21666846530257</v>
       </c>
       <c r="E430">
-        <v>31.97723924135564</v>
+        <v>31.97723924135565</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7681,16 +7681,16 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>94.47492374265535</v>
+        <v>94.47492374265533</v>
       </c>
       <c r="C431">
         <v>96.11637466351108</v>
       </c>
       <c r="D431">
-        <v>101.2618990993698</v>
+        <v>101.2618990993697</v>
       </c>
       <c r="E431">
-        <v>82.55677111680036</v>
+        <v>82.55677111680033</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7721,10 +7721,10 @@
         <v>24.84309215316927</v>
       </c>
       <c r="D433">
-        <v>29.54694009695699</v>
+        <v>29.54694009695698</v>
       </c>
       <c r="E433">
-        <v>45.09610662242462</v>
+        <v>45.09610662242464</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7772,10 +7772,10 @@
         <v>47.84822276595155</v>
       </c>
       <c r="D436">
-        <v>49.50000711522891</v>
+        <v>49.5000071152289</v>
       </c>
       <c r="E436">
-        <v>49.52047933511965</v>
+        <v>49.52047933511964</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7783,13 +7783,13 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>40.4560760294805</v>
+        <v>40.45607602948051</v>
       </c>
       <c r="C437">
         <v>43.25177134541555</v>
       </c>
       <c r="D437">
-        <v>50.93134130423457</v>
+        <v>50.93134130423456</v>
       </c>
       <c r="E437">
         <v>49.89869805646697</v>
@@ -7800,7 +7800,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>31.82544647652467</v>
+        <v>31.82544647652468</v>
       </c>
       <c r="C438">
         <v>40.23420590271214</v>
@@ -7902,7 +7902,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>16.72184475885194</v>
+        <v>16.72184475885195</v>
       </c>
       <c r="C444">
         <v>17.09953750865266</v>
@@ -7925,7 +7925,7 @@
         <v>0.5029275737839017</v>
       </c>
       <c r="D445">
-        <v>0.5722622618453321</v>
+        <v>0.5722622618453322</v>
       </c>
       <c r="E445">
         <v>0.6011891332104454</v>
@@ -7959,7 +7959,7 @@
         <v>0.5029275737839017</v>
       </c>
       <c r="D447">
-        <v>0.5722622618453321</v>
+        <v>0.5722622618453322</v>
       </c>
       <c r="E447">
         <v>0.6011891332104454</v>
@@ -7973,7 +7973,7 @@
         <v>8.444338077351059</v>
       </c>
       <c r="C448">
-        <v>7.771449746013765</v>
+        <v>7.771449746013764</v>
       </c>
       <c r="D448">
         <v>7.738767046328619</v>
@@ -7990,13 +7990,13 @@
         <v>61.22145106079518</v>
       </c>
       <c r="C449">
-        <v>60.2287355316067</v>
+        <v>60.22873553160668</v>
       </c>
       <c r="D449">
         <v>56.10606108588249</v>
       </c>
       <c r="E449">
-        <v>43.30140350757513</v>
+        <v>43.30140350757514</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8007,7 +8007,7 @@
         <v>32.72181004973535</v>
       </c>
       <c r="C450">
-        <v>23.3143492380413</v>
+        <v>23.31434923804129</v>
       </c>
       <c r="D450">
         <v>22.24895525819478</v>
@@ -8047,7 +8047,7 @@
         <v>49.33463992034495</v>
       </c>
       <c r="E452">
-        <v>62.24576754213925</v>
+        <v>62.24576754213926</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8064,7 +8064,7 @@
         <v>49.33463992034495</v>
       </c>
       <c r="E453">
-        <v>90.21125730744818</v>
+        <v>90.21125730744821</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,13 +8072,13 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>50.0122037181035</v>
+        <v>50.01220371810349</v>
       </c>
       <c r="C454">
-        <v>41.98247202628434</v>
+        <v>41.98247202628433</v>
       </c>
       <c r="D454">
-        <v>42.47650927386336</v>
+        <v>42.47650927386335</v>
       </c>
       <c r="E454">
         <v>43.4718375405166</v>
@@ -8109,13 +8109,13 @@
         <v>28.71070954187423</v>
       </c>
       <c r="C456">
-        <v>25.70355430180674</v>
+        <v>25.70355430180673</v>
       </c>
       <c r="D456">
-        <v>30.72768755981604</v>
+        <v>30.72768755981603</v>
       </c>
       <c r="E456">
-        <v>39.99409053727528</v>
+        <v>39.99409053727527</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8123,10 +8123,10 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>7.409215365644964</v>
+        <v>7.409215365644963</v>
       </c>
       <c r="C457">
-        <v>6.854281147148463</v>
+        <v>6.854281147148462</v>
       </c>
       <c r="D457">
         <v>8.133799648186599</v>
@@ -8140,13 +8140,13 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>36.1199249075192</v>
+        <v>36.11992490751919</v>
       </c>
       <c r="C458">
         <v>44.55282745646501</v>
       </c>
       <c r="D458">
-        <v>45.18777582325888</v>
+        <v>45.18777582325889</v>
       </c>
       <c r="E458">
         <v>31.29972302917196</v>
@@ -8174,10 +8174,10 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>37.04607682822482</v>
+        <v>37.04607682822481</v>
       </c>
       <c r="C460">
-        <v>41.12568688289078</v>
+        <v>41.12568688289077</v>
       </c>
       <c r="D460">
         <v>37.05397617507228</v>
@@ -8191,13 +8191,13 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>37.97222874893044</v>
+        <v>37.97222874893043</v>
       </c>
       <c r="C461">
-        <v>39.41211659610367</v>
+        <v>39.41211659610366</v>
       </c>
       <c r="D461">
-        <v>42.47650927386335</v>
+        <v>42.47650927386334</v>
       </c>
       <c r="E461">
         <v>38.25521703565461</v>
@@ -8208,16 +8208,16 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>7.409215365644964</v>
+        <v>7.409215365644963</v>
       </c>
       <c r="C462">
         <v>6.854281147148463</v>
       </c>
       <c r="D462">
-        <v>7.230044131721421</v>
+        <v>7.23004413172142</v>
       </c>
       <c r="E462">
-        <v>6.955494006482656</v>
+        <v>6.955494006482657</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8234,7 +8234,7 @@
         <v>53.78354512521182</v>
       </c>
       <c r="E463">
-        <v>46.64226597451372</v>
+        <v>46.64226597451373</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8248,10 +8248,10 @@
         <v>49.43946357015562</v>
       </c>
       <c r="D464">
-        <v>52.07613099425272</v>
+        <v>52.07613099425271</v>
       </c>
       <c r="E464">
-        <v>44.14357315445048</v>
+        <v>44.14357315445049</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8262,10 +8262,10 @@
         <v>2.395086038945331</v>
       </c>
       <c r="C465">
-        <v>2.908442825278005</v>
+        <v>2.908442825278006</v>
       </c>
       <c r="D465">
-        <v>3.349104128824543</v>
+        <v>3.349104128824542</v>
       </c>
       <c r="E465">
         <v>2.811020851563001</v>
@@ -8279,13 +8279,13 @@
         <v>11.19481013852429</v>
       </c>
       <c r="C466">
-        <v>19.81179041801901</v>
+        <v>19.81179041801902</v>
       </c>
       <c r="D466">
         <v>27.17506305376305</v>
       </c>
       <c r="E466">
-        <v>22.15800621881855</v>
+        <v>22.15800621881856</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8313,13 +8313,13 @@
         <v>33.77735230940424</v>
       </c>
       <c r="C468">
-        <v>20.40005558328614</v>
+        <v>20.40005558328613</v>
       </c>
       <c r="D468">
         <v>24.18364701977693</v>
       </c>
       <c r="E468">
-        <v>48.71407894602202</v>
+        <v>48.71407894602203</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8336,7 +8336,7 @@
         <v>20.31426349661263</v>
       </c>
       <c r="E469">
-        <v>34.28027777683031</v>
+        <v>34.28027777683032</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8347,7 +8347,7 @@
         <v>42.2216903867553</v>
       </c>
       <c r="C470">
-        <v>30.11436776580335</v>
+        <v>30.11436776580334</v>
       </c>
       <c r="D470">
         <v>31.92241406610556</v>
@@ -8367,7 +8367,7 @@
         <v>8.23991059502594</v>
       </c>
       <c r="D471">
-        <v>9.39077772027508</v>
+        <v>9.390777720275079</v>
       </c>
       <c r="E471">
         <v>10.82766888694069</v>
@@ -8381,7 +8381,7 @@
         <v>10.18767112776183</v>
       </c>
       <c r="C472">
-        <v>8.56785143393558</v>
+        <v>8.567851433935578</v>
       </c>
       <c r="D472">
         <v>9.941310681116953</v>
@@ -8401,7 +8401,7 @@
         <v>12.38236901126188</v>
       </c>
       <c r="D473">
-        <v>14.63272625971857</v>
+        <v>14.63272625971856</v>
       </c>
       <c r="E473">
         <v>15.72503667141962</v>
@@ -8415,10 +8415,10 @@
         <v>31.60887568524507</v>
       </c>
       <c r="C474">
-        <v>32.19415942928089</v>
+        <v>32.1941594292809</v>
       </c>
       <c r="D474">
-        <v>37.62701038213346</v>
+        <v>37.62701038213345</v>
       </c>
       <c r="E474">
         <v>37.16826849608273</v>
@@ -8438,7 +8438,7 @@
         <v>33.00000474348594</v>
       </c>
       <c r="E475">
-        <v>36.41211715817621</v>
+        <v>36.4121171581762</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8446,13 +8446,13 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>40.21797345831488</v>
+        <v>40.21797345831487</v>
       </c>
       <c r="C476">
         <v>40.97396115692389</v>
       </c>
       <c r="D476">
-        <v>49.96039111281038</v>
+        <v>49.96039111281037</v>
       </c>
       <c r="E476">
         <v>50.563708769582</v>
@@ -8469,7 +8469,7 @@
         <v>11.78702992185482</v>
       </c>
       <c r="D477">
-        <v>16.42533406448561</v>
+        <v>16.4253340644856</v>
       </c>
       <c r="E477">
         <v>15.66762806944795</v>
@@ -8489,7 +8489,7 @@
         <v>102.8089717588573</v>
       </c>
       <c r="E478">
-        <v>71.51619434741437</v>
+        <v>71.51619434741436</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8520,7 +8520,7 @@
         <v>12.53435615725611</v>
       </c>
       <c r="D480">
-        <v>14.59505280960735</v>
+        <v>14.59505280960734</v>
       </c>
       <c r="E480">
         <v>18.89898832939908</v>
@@ -8554,10 +8554,10 @@
         <v>85.98928490766073</v>
       </c>
       <c r="D482">
-        <v>93.23049612915014</v>
+        <v>93.23049612915011</v>
       </c>
       <c r="E482">
-        <v>88.89396119818795</v>
+        <v>88.89396119818794</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8602,10 +8602,10 @@
         <v>38.34722418118093</v>
       </c>
       <c r="C485">
-        <v>26.54334245065999</v>
+        <v>26.54334245066</v>
       </c>
       <c r="D485">
-        <v>33.030908990164</v>
+        <v>33.03090899016399</v>
       </c>
       <c r="E485">
         <v>56.69696498819724</v>
@@ -8633,16 +8633,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>80.75173457361161</v>
+        <v>80.7517345736116</v>
       </c>
       <c r="C487">
         <v>59.26948653299694</v>
       </c>
       <c r="D487">
-        <v>61.17240830073655</v>
+        <v>61.17240830073656</v>
       </c>
       <c r="E487">
-        <v>68.49221214295288</v>
+        <v>68.49221214295287</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8684,13 +8684,13 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>101.9662928618333</v>
+        <v>101.9662928618332</v>
       </c>
       <c r="C490">
         <v>107.6605616212873</v>
       </c>
       <c r="D490">
-        <v>94.82820162643226</v>
+        <v>94.82820162643225</v>
       </c>
       <c r="E490">
         <v>61.4349035907375</v>
@@ -8718,7 +8718,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>279.8649314718402</v>
+        <v>279.8649314718401</v>
       </c>
       <c r="C492">
         <v>294.3992348759094</v>
@@ -8735,7 +8735,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>112.8137708258581</v>
+        <v>112.813770825858</v>
       </c>
       <c r="C493">
         <v>96.2275816261063</v>
@@ -8809,7 +8809,7 @@
         <v>61.15972286600093</v>
       </c>
       <c r="D497">
-        <v>58.67895440474855</v>
+        <v>58.67895440474854</v>
       </c>
       <c r="E497">
         <v>56.41366557739931</v>
@@ -8837,7 +8837,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>43.90810631406992</v>
+        <v>43.90810631406991</v>
       </c>
       <c r="C499">
         <v>39.36076813322033</v>
@@ -8860,7 +8860,7 @@
         <v>20.71619375432649</v>
       </c>
       <c r="D500">
-        <v>19.42567959446667</v>
+        <v>19.42567959446666</v>
       </c>
       <c r="E500">
         <v>17.03342869010364</v>
